--- a/raw_data/20200818_saline/20200818_Sensor0_Test_6.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_6.xlsx
@@ -1,795 +1,1211 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8F2587-47A2-4680-9B9C-750D0FA38ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>4502.844441</v>
+        <v>4502.8444410000002</v>
       </c>
       <c r="B2" s="1">
-        <v>1.250790</v>
+        <v>1.2507900000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>902.638000</v>
+        <v>902.63800000000003</v>
       </c>
       <c r="D2" s="1">
-        <v>-194.982000</v>
+        <v>-194.982</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>4513.233643</v>
+        <v>4513.2336429999996</v>
       </c>
       <c r="G2" s="1">
         <v>1.253676</v>
       </c>
       <c r="H2" s="1">
-        <v>919.314000</v>
+        <v>919.31399999999996</v>
       </c>
       <c r="I2" s="1">
-        <v>-165.343000</v>
+        <v>-165.34299999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>4523.642686</v>
+        <v>4523.6426860000001</v>
       </c>
       <c r="L2" s="1">
         <v>1.256567</v>
       </c>
       <c r="M2" s="1">
-        <v>941.267000</v>
+        <v>941.26700000000005</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.245000</v>
+        <v>-118.245</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>4534.485263</v>
+        <v>4534.4852629999996</v>
       </c>
       <c r="Q2" s="1">
         <v>1.259579</v>
       </c>
       <c r="R2" s="1">
-        <v>947.590000</v>
+        <v>947.59</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.062000</v>
+        <v>-103.062</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>4545.381841</v>
+        <v>4545.3818410000003</v>
       </c>
       <c r="V2" s="1">
-        <v>1.262606</v>
+        <v>1.2626059999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>953.982000</v>
+        <v>953.98199999999997</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.336800</v>
+        <v>-89.336799999999997</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>4555.767075</v>
+        <v>4555.7670749999997</v>
       </c>
       <c r="AA2" s="1">
-        <v>1.265491</v>
+        <v>1.2654909999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>961.091000</v>
+        <v>961.09100000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-79.873800</v>
+        <v>-79.873800000000003</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>4566.288741</v>
+        <v>4566.2887410000003</v>
       </c>
       <c r="AF2" s="1">
-        <v>1.268414</v>
+        <v>1.2684139999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>966.033000</v>
+        <v>966.03300000000002</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.511500</v>
+        <v>-79.511499999999998</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>4576.717591</v>
+        <v>4576.7175909999996</v>
       </c>
       <c r="AK2" s="1">
-        <v>1.271310</v>
+        <v>1.2713099999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>974.014000</v>
+        <v>974.01400000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.205400</v>
+        <v>-87.205399999999997</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>4586.914347</v>
+        <v>4586.9143469999999</v>
       </c>
       <c r="AP2" s="1">
         <v>1.274143</v>
       </c>
       <c r="AQ2" s="1">
-        <v>983.239000</v>
+        <v>983.23900000000003</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.997000</v>
+        <v>-101.997</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>4598.257857</v>
+        <v>4598.2578569999996</v>
       </c>
       <c r="AU2" s="1">
-        <v>1.277294</v>
+        <v>1.2772939999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>994.680000</v>
+        <v>994.68</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.295000</v>
+        <v>-123.295</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>4609.003212</v>
+        <v>4609.0032119999996</v>
       </c>
       <c r="AZ2" s="1">
-        <v>1.280279</v>
+        <v>1.2802789999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1004.310000</v>
+        <v>1004.31</v>
       </c>
       <c r="BB2" s="1">
-        <v>-141.809000</v>
+        <v>-141.809</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>4619.673616</v>
       </c>
       <c r="BE2" s="1">
-        <v>1.283243</v>
+        <v>1.2832429999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1049.370000</v>
+        <v>1049.3699999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-225.518000</v>
+        <v>-225.518</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>4630.273616</v>
+        <v>4630.2736160000004</v>
       </c>
       <c r="BJ2" s="1">
         <v>1.286187</v>
       </c>
       <c r="BK2" s="1">
-        <v>1127.950000</v>
+        <v>1127.95</v>
       </c>
       <c r="BL2" s="1">
-        <v>-359.867000</v>
+        <v>-359.86700000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>4641.013491</v>
+        <v>4641.0134909999997</v>
       </c>
       <c r="BO2" s="1">
-        <v>1.289170</v>
+        <v>1.2891699999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1257.910000</v>
+        <v>1257.9100000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-567.956000</v>
+        <v>-567.95600000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>4651.773700</v>
+        <v>4651.7736999999997</v>
       </c>
       <c r="BT2" s="1">
-        <v>1.292159</v>
+        <v>1.2921590000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1403.850000</v>
+        <v>1403.85</v>
       </c>
       <c r="BV2" s="1">
-        <v>-790.726000</v>
+        <v>-790.726</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>4663.219662</v>
+        <v>4663.2196620000004</v>
       </c>
       <c r="BY2" s="1">
         <v>1.295339</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1564.810000</v>
+        <v>1564.81</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1022.430000</v>
+        <v>-1022.43</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>4674.128391</v>
+        <v>4674.1283910000002</v>
       </c>
       <c r="CD2" s="1">
-        <v>1.298369</v>
+        <v>1.2983690000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1971.870000</v>
+        <v>1971.87</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1561.800000</v>
+        <v>-1561.8</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>4503.207054</v>
+        <v>4503.2070540000004</v>
       </c>
       <c r="B3" s="1">
         <v>1.250891</v>
       </c>
       <c r="C3" s="1">
-        <v>902.540000</v>
+        <v>902.54</v>
       </c>
       <c r="D3" s="1">
-        <v>-195.082000</v>
+        <v>-195.08199999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>4513.577868</v>
+        <v>4513.5778680000003</v>
       </c>
       <c r="G3" s="1">
-        <v>1.253772</v>
+        <v>1.2537720000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>919.258000</v>
+        <v>919.25800000000004</v>
       </c>
       <c r="I3" s="1">
-        <v>-165.267000</v>
+        <v>-165.267</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>4524.022125</v>
+        <v>4524.0221250000004</v>
       </c>
       <c r="L3" s="1">
-        <v>1.256673</v>
+        <v>1.2566729999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>941.272000</v>
+        <v>941.27200000000005</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.138000</v>
+        <v>-118.13800000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>4535.212894</v>
+        <v>4535.2128940000002</v>
       </c>
       <c r="Q3" s="1">
         <v>1.259781</v>
       </c>
       <c r="R3" s="1">
-        <v>947.596000</v>
+        <v>947.596</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.019000</v>
+        <v>-103.01900000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>4545.710231</v>
@@ -798,330 +1214,330 @@
         <v>1.262697</v>
       </c>
       <c r="W3" s="1">
-        <v>953.942000</v>
+        <v>953.94200000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.366400</v>
+        <v>-89.366399999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>4556.110803</v>
+        <v>4556.1108029999996</v>
       </c>
       <c r="AA3" s="1">
-        <v>1.265586</v>
+        <v>1.2655860000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>961.158000</v>
+        <v>961.15800000000002</v>
       </c>
       <c r="AC3" s="1">
-        <v>-79.994300</v>
+        <v>-79.994299999999996</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>4566.646854</v>
+        <v>4566.6468539999996</v>
       </c>
       <c r="AF3" s="1">
         <v>1.268513</v>
       </c>
       <c r="AG3" s="1">
-        <v>966.051000</v>
+        <v>966.05100000000004</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.490600</v>
+        <v>-79.490600000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>4577.075216</v>
+        <v>4577.0752160000002</v>
       </c>
       <c r="AK3" s="1">
-        <v>1.271410</v>
+        <v>1.2714099999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>974.009000</v>
+        <v>974.00900000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.207800</v>
+        <v>-87.207800000000006</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>4587.622634</v>
+        <v>4587.6226340000003</v>
       </c>
       <c r="AP3" s="1">
-        <v>1.274340</v>
+        <v>1.27434</v>
       </c>
       <c r="AQ3" s="1">
-        <v>983.258000</v>
+        <v>983.25800000000004</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.994000</v>
+        <v>-101.994</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>4598.367004</v>
+        <v>4598.3670039999997</v>
       </c>
       <c r="AU3" s="1">
-        <v>1.277324</v>
+        <v>1.2773239999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>994.675000</v>
+        <v>994.67499999999995</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.276000</v>
+        <v>-123.276</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>4609.426764</v>
+        <v>4609.4267639999998</v>
       </c>
       <c r="AZ3" s="1">
-        <v>1.280396</v>
+        <v>1.2803960000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1004.310000</v>
+        <v>1004.31</v>
       </c>
       <c r="BB3" s="1">
-        <v>-141.795000</v>
+        <v>-141.79499999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>4620.039171</v>
+        <v>4620.0391710000004</v>
       </c>
       <c r="BE3" s="1">
         <v>1.283344</v>
       </c>
       <c r="BF3" s="1">
-        <v>1049.360000</v>
+        <v>1049.3599999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-225.505000</v>
+        <v>-225.505</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>4630.669456</v>
+        <v>4630.6694559999996</v>
       </c>
       <c r="BJ3" s="1">
         <v>1.286297</v>
       </c>
       <c r="BK3" s="1">
-        <v>1127.960000</v>
+        <v>1127.96</v>
       </c>
       <c r="BL3" s="1">
-        <v>-359.899000</v>
+        <v>-359.899</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>4641.439058</v>
+        <v>4641.4390579999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>1.289289</v>
+        <v>1.2892889999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1257.900000</v>
+        <v>1257.9000000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-568.017000</v>
+        <v>-568.01700000000005</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>4652.212659</v>
+        <v>4652.2126589999998</v>
       </c>
       <c r="BT3" s="1">
         <v>1.292281</v>
       </c>
       <c r="BU3" s="1">
-        <v>1403.860000</v>
+        <v>1403.86</v>
       </c>
       <c r="BV3" s="1">
-        <v>-790.731000</v>
+        <v>-790.73099999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>4663.405878</v>
+        <v>4663.4058779999996</v>
       </c>
       <c r="BY3" s="1">
         <v>1.295391</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1564.850000</v>
+        <v>1564.85</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1022.350000</v>
+        <v>-1022.35</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>4674.391303</v>
+        <v>4674.3913030000003</v>
       </c>
       <c r="CD3" s="1">
-        <v>1.298442</v>
+        <v>1.2984420000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1971.930000</v>
+        <v>1971.93</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1563.430000</v>
+        <v>-1563.43</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>4503.548264</v>
       </c>
       <c r="B4" s="1">
-        <v>1.250986</v>
+        <v>1.2509859999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>902.580000</v>
+        <v>902.58</v>
       </c>
       <c r="D4" s="1">
-        <v>-194.890000</v>
+        <v>-194.89</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>4514.265325</v>
+        <v>4514.2653250000003</v>
       </c>
       <c r="G4" s="1">
-        <v>1.253963</v>
+        <v>1.2539629999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>919.480000</v>
+        <v>919.48</v>
       </c>
       <c r="I4" s="1">
-        <v>-165.251000</v>
+        <v>-165.251</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>4524.712097</v>
+        <v>4524.7120969999996</v>
       </c>
       <c r="L4" s="1">
         <v>1.256864</v>
       </c>
       <c r="M4" s="1">
-        <v>941.325000</v>
+        <v>941.32500000000005</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.302000</v>
+        <v>-118.30200000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>4535.563038</v>
+        <v>4535.5630380000002</v>
       </c>
       <c r="Q4" s="1">
         <v>1.259879</v>
       </c>
       <c r="R4" s="1">
-        <v>947.653000</v>
+        <v>947.65300000000002</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.006000</v>
+        <v>-103.006</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>4546.053952</v>
+        <v>4546.0539520000002</v>
       </c>
       <c r="V4" s="1">
-        <v>1.262793</v>
+        <v>1.2627930000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>953.961000</v>
+        <v>953.96100000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.352700</v>
+        <v>-89.352699999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>4556.455522</v>
+        <v>4556.4555220000002</v>
       </c>
       <c r="AA4" s="1">
         <v>1.265682</v>
       </c>
       <c r="AB4" s="1">
-        <v>961.028000</v>
+        <v>961.02800000000002</v>
       </c>
       <c r="AC4" s="1">
-        <v>-79.949800</v>
+        <v>-79.949799999999996</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>4567.303524</v>
+        <v>4567.3035239999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>1.268695</v>
+        <v>1.2686949999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>966.055000</v>
+        <v>966.05499999999995</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.514500</v>
+        <v>-79.514499999999998</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>4577.518134</v>
+        <v>4577.5181339999999</v>
       </c>
       <c r="AK4" s="1">
         <v>1.271533</v>
       </c>
       <c r="AL4" s="1">
-        <v>974.004000</v>
+        <v>974.00400000000002</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.233400</v>
+        <v>-87.233400000000003</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>4588.035802</v>
+        <v>4588.0358020000003</v>
       </c>
       <c r="AP4" s="1">
         <v>1.274454</v>
       </c>
       <c r="AQ4" s="1">
-        <v>983.235000</v>
+        <v>983.23500000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.977000</v>
+        <v>-101.977</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>4598.724123</v>
@@ -1130,285 +1546,285 @@
         <v>1.277423</v>
       </c>
       <c r="AV4" s="1">
-        <v>994.689000</v>
+        <v>994.68899999999996</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.274000</v>
+        <v>-123.274</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>4609.788844</v>
+        <v>4609.7888439999997</v>
       </c>
       <c r="AZ4" s="1">
         <v>1.280497</v>
       </c>
       <c r="BA4" s="1">
-        <v>1004.320000</v>
+        <v>1004.32</v>
       </c>
       <c r="BB4" s="1">
-        <v>-141.802000</v>
+        <v>-141.80199999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>4620.398766</v>
+        <v>4620.3987660000003</v>
       </c>
       <c r="BE4" s="1">
         <v>1.283444</v>
       </c>
       <c r="BF4" s="1">
-        <v>1049.380000</v>
+        <v>1049.3800000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-225.519000</v>
+        <v>-225.51900000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>4631.080112</v>
+        <v>4631.0801119999996</v>
       </c>
       <c r="BJ4" s="1">
         <v>1.286411</v>
       </c>
       <c r="BK4" s="1">
-        <v>1127.940000</v>
+        <v>1127.94</v>
       </c>
       <c r="BL4" s="1">
-        <v>-359.890000</v>
+        <v>-359.89</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>4641.862182</v>
+        <v>4641.8621819999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>1.289406</v>
+        <v>1.2894060000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1257.910000</v>
+        <v>1257.9100000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-568.064000</v>
+        <v>-568.06399999999996</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>4652.649140</v>
+        <v>4652.6491400000004</v>
       </c>
       <c r="BT4" s="1">
         <v>1.292403</v>
       </c>
       <c r="BU4" s="1">
-        <v>1403.780000</v>
+        <v>1403.78</v>
       </c>
       <c r="BV4" s="1">
-        <v>-790.683000</v>
+        <v>-790.68299999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>4663.849828</v>
+        <v>4663.8498280000003</v>
       </c>
       <c r="BY4" s="1">
-        <v>1.295514</v>
+        <v>1.2955140000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1564.960000</v>
+        <v>1564.96</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1022.570000</v>
+        <v>-1022.57</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>4674.925959</v>
+        <v>4674.9259590000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>1.298591</v>
+        <v>1.2985910000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1970.850000</v>
+        <v>1970.85</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1562.190000</v>
+        <v>-1562.19</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>4504.232279</v>
+        <v>4504.2322789999998</v>
       </c>
       <c r="B5" s="1">
-        <v>1.251176</v>
+        <v>1.2511760000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>902.591000</v>
+        <v>902.59100000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-194.999000</v>
+        <v>-194.999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>4514.614011</v>
+        <v>4514.6140109999997</v>
       </c>
       <c r="G5" s="1">
         <v>1.254059</v>
       </c>
       <c r="H5" s="1">
-        <v>919.580000</v>
+        <v>919.58</v>
       </c>
       <c r="I5" s="1">
-        <v>-165.399000</v>
+        <v>-165.399</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>4525.061244</v>
+        <v>4525.0612440000004</v>
       </c>
       <c r="L5" s="1">
         <v>1.256961</v>
       </c>
       <c r="M5" s="1">
-        <v>941.315000</v>
+        <v>941.31500000000005</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.313000</v>
+        <v>-118.313</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>4535.911727</v>
+        <v>4535.9117269999997</v>
       </c>
       <c r="Q5" s="1">
-        <v>1.259975</v>
+        <v>1.2599750000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>947.605000</v>
+        <v>947.60500000000002</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.996000</v>
+        <v>-102.996</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>4546.723519</v>
+        <v>4546.7235190000001</v>
       </c>
       <c r="V5" s="1">
-        <v>1.262979</v>
+        <v>1.2629790000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>953.958000</v>
+        <v>953.95799999999997</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.318800</v>
+        <v>-89.318799999999996</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>4557.119169</v>
+        <v>4557.1191689999996</v>
       </c>
       <c r="AA5" s="1">
-        <v>1.265866</v>
+        <v>1.2658659999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>961.075000</v>
+        <v>961.07500000000005</v>
       </c>
       <c r="AC5" s="1">
-        <v>-79.899100</v>
+        <v>-79.899100000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>4567.677508</v>
+        <v>4567.6775079999998</v>
       </c>
       <c r="AF5" s="1">
         <v>1.268799</v>
       </c>
       <c r="AG5" s="1">
-        <v>966.031000</v>
+        <v>966.03099999999995</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.498700</v>
+        <v>-79.498699999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>4577.784982</v>
+        <v>4577.7849820000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>1.271607</v>
+        <v>1.2716069999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>974.022000</v>
+        <v>974.02200000000005</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.196800</v>
+        <v>-87.196799999999996</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>4588.424168</v>
+        <v>4588.4241679999996</v>
       </c>
       <c r="AP5" s="1">
         <v>1.274562</v>
       </c>
       <c r="AQ5" s="1">
-        <v>983.242000</v>
+        <v>983.24199999999996</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.970000</v>
+        <v>-101.97</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>4599.086667</v>
+        <v>4599.0866669999996</v>
       </c>
       <c r="AU5" s="1">
-        <v>1.277524</v>
+        <v>1.2775240000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>994.682000</v>
+        <v>994.68200000000002</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.275000</v>
+        <v>-123.27500000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>4610.146955</v>
+        <v>4610.1469550000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>1.280596</v>
+        <v>1.2805960000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1004.300000</v>
+        <v>1004.3</v>
       </c>
       <c r="BB5" s="1">
-        <v>-141.797000</v>
+        <v>-141.797</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>4620.819904</v>
@@ -1417,348 +1833,348 @@
         <v>1.283561</v>
       </c>
       <c r="BF5" s="1">
-        <v>1049.370000</v>
+        <v>1049.3699999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-225.516000</v>
+        <v>-225.51599999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>4631.418416</v>
+        <v>4631.4184160000004</v>
       </c>
       <c r="BJ5" s="1">
         <v>1.286505</v>
       </c>
       <c r="BK5" s="1">
-        <v>1127.960000</v>
+        <v>1127.96</v>
       </c>
       <c r="BL5" s="1">
-        <v>-359.939000</v>
+        <v>-359.93900000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>4642.254662</v>
+        <v>4642.2546620000003</v>
       </c>
       <c r="BO5" s="1">
         <v>1.289515</v>
       </c>
       <c r="BP5" s="1">
-        <v>1257.890000</v>
+        <v>1257.8900000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-568.056000</v>
+        <v>-568.05600000000004</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>4653.078178</v>
+        <v>4653.0781779999998</v>
       </c>
       <c r="BT5" s="1">
-        <v>1.292522</v>
+        <v>1.2925219999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1403.760000</v>
+        <v>1403.76</v>
       </c>
       <c r="BV5" s="1">
-        <v>-790.652000</v>
+        <v>-790.65200000000004</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>4664.274868</v>
+        <v>4664.2748680000004</v>
       </c>
       <c r="BY5" s="1">
-        <v>1.295632</v>
+        <v>1.2956319999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1565.090000</v>
+        <v>1565.09</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1022.380000</v>
+        <v>-1022.38</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>4675.465109</v>
+        <v>4675.4651089999998</v>
       </c>
       <c r="CD5" s="1">
-        <v>1.298740</v>
+        <v>1.29874</v>
       </c>
       <c r="CE5" s="1">
-        <v>1971.350000</v>
+        <v>1971.35</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1564.410000</v>
+        <v>-1564.41</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>4504.579447</v>
+        <v>4504.5794470000001</v>
       </c>
       <c r="B6" s="1">
-        <v>1.251272</v>
+        <v>1.2512719999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>902.749000</v>
+        <v>902.74900000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>-194.883000</v>
+        <v>-194.88300000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>4514.958729</v>
+        <v>4514.9587289999999</v>
       </c>
       <c r="G6" s="1">
-        <v>1.254155</v>
+        <v>1.2541549999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>919.325000</v>
+        <v>919.32500000000005</v>
       </c>
       <c r="I6" s="1">
-        <v>-165.081000</v>
+        <v>-165.08099999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>4525.404502</v>
+        <v>4525.4045020000003</v>
       </c>
       <c r="L6" s="1">
-        <v>1.257057</v>
+        <v>1.2570570000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>941.314000</v>
+        <v>941.31399999999996</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.277000</v>
+        <v>-118.277</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>4536.569916</v>
+        <v>4536.5699160000004</v>
       </c>
       <c r="Q6" s="1">
-        <v>1.260158</v>
+        <v>1.2601579999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>947.660000</v>
+        <v>947.66</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.028000</v>
+        <v>-103.02800000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>4547.086591</v>
+        <v>4547.0865910000002</v>
       </c>
       <c r="V6" s="1">
-        <v>1.263080</v>
+        <v>1.26308</v>
       </c>
       <c r="W6" s="1">
-        <v>953.930000</v>
+        <v>953.93</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.403800</v>
+        <v>-89.403800000000004</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>4557.503073</v>
+        <v>4557.5030729999999</v>
       </c>
       <c r="AA6" s="1">
         <v>1.265973</v>
       </c>
       <c r="AB6" s="1">
-        <v>961.155000</v>
+        <v>961.15499999999997</v>
       </c>
       <c r="AC6" s="1">
-        <v>-79.921000</v>
+        <v>-79.921000000000006</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>4568.028690</v>
+        <v>4568.0286900000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>1.268897</v>
+        <v>1.2688969999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>966.025000</v>
+        <v>966.02499999999998</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.510700</v>
+        <v>-79.5107</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>4578.133671</v>
+        <v>4578.1336709999996</v>
       </c>
       <c r="AK6" s="1">
-        <v>1.271704</v>
+        <v>1.2717039999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>974.006000</v>
+        <v>974.00599999999997</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.194500</v>
+        <v>-87.194500000000005</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>4588.805592</v>
+        <v>4588.8055919999997</v>
       </c>
       <c r="AP6" s="1">
-        <v>1.274668</v>
+        <v>1.2746679999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>983.234000</v>
+        <v>983.23400000000004</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.993000</v>
+        <v>-101.99299999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>4599.498841</v>
+        <v>4599.4988409999996</v>
       </c>
       <c r="AU6" s="1">
         <v>1.277639</v>
       </c>
       <c r="AV6" s="1">
-        <v>994.679000</v>
+        <v>994.67899999999997</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.263000</v>
+        <v>-123.26300000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>4610.647915</v>
+        <v>4610.6479149999996</v>
       </c>
       <c r="AZ6" s="1">
-        <v>1.280736</v>
+        <v>1.2807360000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1004.300000</v>
+        <v>1004.3</v>
       </c>
       <c r="BB6" s="1">
-        <v>-141.823000</v>
+        <v>-141.82300000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>4621.121438</v>
+        <v>4621.1214380000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>1.283645</v>
+        <v>1.2836449999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1049.380000</v>
+        <v>1049.3800000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-225.533000</v>
+        <v>-225.53299999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>4631.795344</v>
+        <v>4631.7953440000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>1.286610</v>
+        <v>1.28661</v>
       </c>
       <c r="BK6" s="1">
-        <v>1127.970000</v>
+        <v>1127.97</v>
       </c>
       <c r="BL6" s="1">
-        <v>-359.927000</v>
+        <v>-359.92700000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>4642.652768</v>
+        <v>4642.6527679999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>1.289626</v>
+        <v>1.2896259999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1257.920000</v>
+        <v>1257.92</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-568.012000</v>
+        <v>-568.01199999999994</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>4653.490850</v>
+        <v>4653.4908500000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>1.292636</v>
+        <v>1.2926359999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1403.760000</v>
+        <v>1403.76</v>
       </c>
       <c r="BV6" s="1">
-        <v>-790.595000</v>
+        <v>-790.59500000000003</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>4664.696467</v>
+        <v>4664.6964669999998</v>
       </c>
       <c r="BY6" s="1">
         <v>1.295749</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1564.880000</v>
+        <v>1564.88</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1022.500000</v>
+        <v>-1022.5</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>4676.004260</v>
+        <v>4676.0042599999997</v>
       </c>
       <c r="CD6" s="1">
-        <v>1.298890</v>
+        <v>1.2988900000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1971.930000</v>
+        <v>1971.93</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1562.520000</v>
+        <v>-1562.52</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>4504.924199</v>
       </c>
@@ -1766,465 +2182,465 @@
         <v>1.251368</v>
       </c>
       <c r="C7" s="1">
-        <v>902.726000</v>
+        <v>902.726</v>
       </c>
       <c r="D7" s="1">
-        <v>-195.080000</v>
+        <v>-195.08</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>4515.614440</v>
+        <v>4515.6144400000003</v>
       </c>
       <c r="G7" s="1">
         <v>1.254337</v>
       </c>
       <c r="H7" s="1">
-        <v>919.352000</v>
+        <v>919.35199999999998</v>
       </c>
       <c r="I7" s="1">
-        <v>-165.268000</v>
+        <v>-165.268</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>4526.066139</v>
+        <v>4526.0661389999996</v>
       </c>
       <c r="L7" s="1">
-        <v>1.257241</v>
+        <v>1.2572410000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>941.344000</v>
+        <v>941.34400000000005</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.056000</v>
+        <v>-118.056</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>4536.959799</v>
+        <v>4536.9597990000002</v>
       </c>
       <c r="Q7" s="1">
         <v>1.260267</v>
       </c>
       <c r="R7" s="1">
-        <v>947.636000</v>
+        <v>947.63599999999997</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.057000</v>
+        <v>-103.057</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>4547.429899</v>
+        <v>4547.4298989999998</v>
       </c>
       <c r="V7" s="1">
-        <v>1.263175</v>
+        <v>1.2631749999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>953.857000</v>
+        <v>953.85699999999997</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.365000</v>
+        <v>-89.364999999999995</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>4557.852262</v>
+        <v>4557.8522620000003</v>
       </c>
       <c r="AA7" s="1">
-        <v>1.266070</v>
+        <v>1.26607</v>
       </c>
       <c r="AB7" s="1">
-        <v>961.080000</v>
+        <v>961.08</v>
       </c>
       <c r="AC7" s="1">
-        <v>-79.985300</v>
+        <v>-79.985299999999995</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>4568.373903</v>
+        <v>4568.3739029999997</v>
       </c>
       <c r="AF7" s="1">
         <v>1.268993</v>
       </c>
       <c r="AG7" s="1">
-        <v>966.043000</v>
+        <v>966.04300000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.510900</v>
+        <v>-79.510900000000007</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>4578.550807</v>
+        <v>4578.5508069999996</v>
       </c>
       <c r="AK7" s="1">
-        <v>1.271820</v>
+        <v>1.27182</v>
       </c>
       <c r="AL7" s="1">
-        <v>974.030000</v>
+        <v>974.03</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.209900</v>
+        <v>-87.209900000000005</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>4589.217309</v>
+        <v>4589.2173089999997</v>
       </c>
       <c r="AP7" s="1">
         <v>1.274783</v>
       </c>
       <c r="AQ7" s="1">
-        <v>983.233000</v>
+        <v>983.23299999999995</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.003000</v>
+        <v>-102.003</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>4599.818297</v>
+        <v>4599.8182969999998</v>
       </c>
       <c r="AU7" s="1">
-        <v>1.277727</v>
+        <v>1.2777270000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>994.686000</v>
+        <v>994.68600000000004</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.287000</v>
+        <v>-123.28700000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>4610.860698</v>
+        <v>4610.8606980000004</v>
       </c>
       <c r="AZ7" s="1">
-        <v>1.280795</v>
+        <v>1.2807949999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1004.300000</v>
+        <v>1004.3</v>
       </c>
       <c r="BB7" s="1">
-        <v>-141.784000</v>
+        <v>-141.78399999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>4621.485036</v>
       </c>
       <c r="BE7" s="1">
-        <v>1.283746</v>
+        <v>1.2837460000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1049.360000</v>
+        <v>1049.3599999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-225.488000</v>
+        <v>-225.488</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>4632.194153</v>
+        <v>4632.1941530000004</v>
       </c>
       <c r="BJ7" s="1">
         <v>1.286721</v>
       </c>
       <c r="BK7" s="1">
-        <v>1127.960000</v>
+        <v>1127.96</v>
       </c>
       <c r="BL7" s="1">
-        <v>-359.905000</v>
+        <v>-359.90499999999997</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>4643.071392</v>
+        <v>4643.0713919999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>1.289742</v>
+        <v>1.2897419999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1257.900000</v>
+        <v>1257.9000000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-568.084000</v>
+        <v>-568.08399999999995</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>4653.923396</v>
+        <v>4653.9233960000001</v>
       </c>
       <c r="BT7" s="1">
         <v>1.292756</v>
       </c>
       <c r="BU7" s="1">
-        <v>1403.730000</v>
+        <v>1403.73</v>
       </c>
       <c r="BV7" s="1">
-        <v>-790.624000</v>
+        <v>-790.62400000000002</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>4665.124050</v>
+        <v>4665.1240500000004</v>
       </c>
       <c r="BY7" s="1">
         <v>1.295868</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1564.970000</v>
+        <v>1564.97</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1022.430000</v>
+        <v>-1022.43</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>4676.545923</v>
+        <v>4676.5459229999997</v>
       </c>
       <c r="CD7" s="1">
-        <v>1.299041</v>
+        <v>1.2990409999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1970.490000</v>
+        <v>1970.49</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1563.230000</v>
+        <v>-1563.23</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>4505.569000</v>
+        <v>4505.5690000000004</v>
       </c>
       <c r="B8" s="1">
         <v>1.251547</v>
       </c>
       <c r="C8" s="1">
-        <v>902.569000</v>
+        <v>902.56899999999996</v>
       </c>
       <c r="D8" s="1">
-        <v>-195.010000</v>
+        <v>-195.01</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>4515.991904</v>
+        <v>4515.9919040000004</v>
       </c>
       <c r="G8" s="1">
-        <v>1.254442</v>
+        <v>1.2544420000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>919.297000</v>
+        <v>919.29700000000003</v>
       </c>
       <c r="I8" s="1">
-        <v>-165.332000</v>
+        <v>-165.33199999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>4526.439663</v>
+        <v>4526.4396630000001</v>
       </c>
       <c r="L8" s="1">
         <v>1.257344</v>
       </c>
       <c r="M8" s="1">
-        <v>941.402000</v>
+        <v>941.40200000000004</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.172000</v>
+        <v>-118.172</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>4537.307965</v>
       </c>
       <c r="Q8" s="1">
-        <v>1.260363</v>
+        <v>1.2603629999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>947.625000</v>
+        <v>947.625</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.038000</v>
+        <v>-103.038</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>4547.773550</v>
+        <v>4547.7735499999999</v>
       </c>
       <c r="V8" s="1">
-        <v>1.263270</v>
+        <v>1.2632699999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>953.914000</v>
+        <v>953.91399999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.366400</v>
+        <v>-89.366399999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>4558.204417</v>
+        <v>4558.2044169999999</v>
       </c>
       <c r="AA8" s="1">
         <v>1.266168</v>
       </c>
       <c r="AB8" s="1">
-        <v>961.165000</v>
+        <v>961.16499999999996</v>
       </c>
       <c r="AC8" s="1">
-        <v>-79.938100</v>
+        <v>-79.938100000000006</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>4568.790034</v>
+        <v>4568.7900339999997</v>
       </c>
       <c r="AF8" s="1">
-        <v>1.269108</v>
+        <v>1.2691079999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>966.034000</v>
+        <v>966.03399999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.516800</v>
+        <v>-79.516800000000003</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>4578.829061</v>
+        <v>4578.8290610000004</v>
       </c>
       <c r="AK8" s="1">
-        <v>1.271897</v>
+        <v>1.2718970000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>974.018000</v>
+        <v>974.01800000000003</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.227400</v>
+        <v>-87.227400000000003</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>4589.522348</v>
+        <v>4589.5223480000004</v>
       </c>
       <c r="AP8" s="1">
         <v>1.274867</v>
       </c>
       <c r="AQ8" s="1">
-        <v>983.242000</v>
+        <v>983.24199999999996</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.006000</v>
+        <v>-102.006</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>4600.184312</v>
+        <v>4600.1843120000003</v>
       </c>
       <c r="AU8" s="1">
-        <v>1.277829</v>
+        <v>1.2778290000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>994.683000</v>
+        <v>994.68299999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.286000</v>
+        <v>-123.286</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>4611.221322</v>
+        <v>4611.2213220000003</v>
       </c>
       <c r="AZ8" s="1">
-        <v>1.280895</v>
+        <v>1.2808949999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1004.330000</v>
+        <v>1004.33</v>
       </c>
       <c r="BB8" s="1">
-        <v>-141.807000</v>
+        <v>-141.80699999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>4621.845597</v>
+        <v>4621.8455970000005</v>
       </c>
       <c r="BE8" s="1">
         <v>1.283846</v>
       </c>
       <c r="BF8" s="1">
-        <v>1049.370000</v>
+        <v>1049.3699999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-225.508000</v>
+        <v>-225.50800000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>4632.945069</v>
+        <v>4632.9450690000003</v>
       </c>
       <c r="BJ8" s="1">
         <v>1.286929</v>
       </c>
       <c r="BK8" s="1">
-        <v>1127.960000</v>
+        <v>1127.96</v>
       </c>
       <c r="BL8" s="1">
-        <v>-359.898000</v>
+        <v>-359.89800000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>4643.888799</v>
+        <v>4643.8887990000003</v>
       </c>
       <c r="BO8" s="1">
-        <v>1.289969</v>
+        <v>1.2899689999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1257.890000</v>
+        <v>1257.8900000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-568.084000</v>
+        <v>-568.08399999999995</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>4654.349921</v>
@@ -2233,906 +2649,906 @@
         <v>1.292875</v>
       </c>
       <c r="BU8" s="1">
-        <v>1403.800000</v>
+        <v>1403.8</v>
       </c>
       <c r="BV8" s="1">
-        <v>-790.537000</v>
+        <v>-790.53700000000003</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>4665.539170</v>
+        <v>4665.53917</v>
       </c>
       <c r="BY8" s="1">
-        <v>1.295983</v>
+        <v>1.2959830000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1564.860000</v>
+        <v>1564.86</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1022.440000</v>
+        <v>-1022.44</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>4677.085540</v>
+        <v>4677.08554</v>
       </c>
       <c r="CD8" s="1">
-        <v>1.299190</v>
+        <v>1.2991900000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1971.740000</v>
+        <v>1971.74</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1563.830000</v>
+        <v>-1563.83</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>4505.945429</v>
+        <v>4505.9454290000003</v>
       </c>
       <c r="B9" s="1">
         <v>1.251652</v>
       </c>
       <c r="C9" s="1">
-        <v>902.481000</v>
+        <v>902.48099999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-194.907000</v>
+        <v>-194.90700000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>4516.339623</v>
+        <v>4516.3396229999998</v>
       </c>
       <c r="G9" s="1">
-        <v>1.254539</v>
+        <v>1.2545390000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>919.455000</v>
+        <v>919.45500000000004</v>
       </c>
       <c r="I9" s="1">
-        <v>-165.126000</v>
+        <v>-165.126</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>4526.858250</v>
+        <v>4526.8582500000002</v>
       </c>
       <c r="L9" s="1">
-        <v>1.257461</v>
+        <v>1.2574609999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>941.248000</v>
+        <v>941.24800000000005</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.262000</v>
+        <v>-118.262</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>4537.658140</v>
+        <v>4537.6581399999995</v>
       </c>
       <c r="Q9" s="1">
-        <v>1.260461</v>
+        <v>1.2604610000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>947.612000</v>
+        <v>947.61199999999997</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.979000</v>
+        <v>-102.979</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>4548.189229</v>
+        <v>4548.1892289999996</v>
       </c>
       <c r="V9" s="1">
-        <v>1.263386</v>
+        <v>1.2633859999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>953.954000</v>
+        <v>953.95399999999995</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.394500</v>
+        <v>-89.394499999999994</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>4558.618080</v>
+        <v>4558.6180800000002</v>
       </c>
       <c r="AA9" s="1">
         <v>1.266283</v>
       </c>
       <c r="AB9" s="1">
-        <v>961.068000</v>
+        <v>961.06799999999998</v>
       </c>
       <c r="AC9" s="1">
-        <v>-79.984100</v>
+        <v>-79.984099999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>4569.069777</v>
+        <v>4569.0697769999997</v>
       </c>
       <c r="AF9" s="1">
-        <v>1.269186</v>
+        <v>1.2691859999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>966.028000</v>
+        <v>966.02800000000002</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.513800</v>
+        <v>-79.513800000000003</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>4579.178276</v>
+        <v>4579.1782759999996</v>
       </c>
       <c r="AK9" s="1">
-        <v>1.271994</v>
+        <v>1.2719940000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>974.012000</v>
+        <v>974.01199999999994</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.216200</v>
+        <v>-87.216200000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>4589.883431</v>
+        <v>4589.8834310000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>1.274968</v>
+        <v>1.2749680000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>983.267000</v>
+        <v>983.26700000000005</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.971000</v>
+        <v>-101.971</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>4600.548872</v>
+        <v>4600.5488720000003</v>
       </c>
       <c r="AU9" s="1">
-        <v>1.277930</v>
+        <v>1.27793</v>
       </c>
       <c r="AV9" s="1">
-        <v>994.663000</v>
+        <v>994.66300000000001</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.293000</v>
+        <v>-123.29300000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>4611.939998</v>
+        <v>4611.9399979999998</v>
       </c>
       <c r="AZ9" s="1">
         <v>1.281094</v>
       </c>
       <c r="BA9" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="BB9" s="1">
-        <v>-141.809000</v>
+        <v>-141.809</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>4622.563841</v>
+        <v>4622.5638410000001</v>
       </c>
       <c r="BE9" s="1">
         <v>1.284046</v>
       </c>
       <c r="BF9" s="1">
-        <v>1049.400000</v>
+        <v>1049.4000000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-225.534000</v>
+        <v>-225.53399999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>4633.347325</v>
+        <v>4633.3473249999997</v>
       </c>
       <c r="BJ9" s="1">
-        <v>1.287041</v>
+        <v>1.2870410000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1127.940000</v>
+        <v>1127.94</v>
       </c>
       <c r="BL9" s="1">
-        <v>-359.916000</v>
+        <v>-359.916</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>4644.308414</v>
+        <v>4644.3084140000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>1.290086</v>
+        <v>1.2900860000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1257.870000</v>
+        <v>1257.8699999999999</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-568.064000</v>
+        <v>-568.06399999999996</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>4654.763616</v>
+        <v>4654.7636160000002</v>
       </c>
       <c r="BT9" s="1">
-        <v>1.292990</v>
+        <v>1.2929900000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1403.750000</v>
+        <v>1403.75</v>
       </c>
       <c r="BV9" s="1">
-        <v>-790.559000</v>
+        <v>-790.55899999999997</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>4666.305523</v>
       </c>
       <c r="BY9" s="1">
-        <v>1.296196</v>
+        <v>1.2961959999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1564.890000</v>
+        <v>1564.89</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1022.460000</v>
+        <v>-1022.46</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>4677.965938</v>
+        <v>4677.9659380000003</v>
       </c>
       <c r="CD9" s="1">
-        <v>1.299435</v>
+        <v>1.2994349999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1970.340000</v>
+        <v>1970.34</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1563.290000</v>
+        <v>-1563.29</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>4506.288662</v>
+        <v>4506.2886619999999</v>
       </c>
       <c r="B10" s="1">
-        <v>1.251747</v>
+        <v>1.2517469999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>902.690000</v>
+        <v>902.69</v>
       </c>
       <c r="D10" s="1">
-        <v>-194.945000</v>
+        <v>-194.94499999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>4516.679879</v>
+        <v>4516.6798790000003</v>
       </c>
       <c r="G10" s="1">
-        <v>1.254633</v>
+        <v>1.2546330000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>919.622000</v>
+        <v>919.62199999999996</v>
       </c>
       <c r="I10" s="1">
-        <v>-165.116000</v>
+        <v>-165.11600000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>4527.460888</v>
+        <v>4527.4608879999996</v>
       </c>
       <c r="L10" s="1">
         <v>1.257628</v>
       </c>
       <c r="M10" s="1">
-        <v>941.107000</v>
+        <v>941.10699999999997</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.297000</v>
+        <v>-118.297</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>4538.081227</v>
+        <v>4538.0812269999997</v>
       </c>
       <c r="Q10" s="1">
         <v>1.260578</v>
       </c>
       <c r="R10" s="1">
-        <v>947.637000</v>
+        <v>947.63699999999994</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.994000</v>
+        <v>-102.994</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>4548.488285</v>
+        <v>4548.4882850000004</v>
       </c>
       <c r="V10" s="1">
         <v>1.263469</v>
       </c>
       <c r="W10" s="1">
-        <v>953.982000</v>
+        <v>953.98199999999997</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.371900</v>
+        <v>-89.371899999999997</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>4558.898319</v>
+        <v>4558.8983189999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>1.266361</v>
+        <v>1.2663610000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>961.081000</v>
+        <v>961.08100000000002</v>
       </c>
       <c r="AC10" s="1">
-        <v>-79.889500</v>
+        <v>-79.889499999999998</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>4569.410530</v>
+        <v>4569.4105300000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>1.269281</v>
+        <v>1.2692810000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>966.020000</v>
+        <v>966.02</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.505000</v>
+        <v>-79.504999999999995</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>4579.524948</v>
+        <v>4579.5249480000002</v>
       </c>
       <c r="AK10" s="1">
-        <v>1.272090</v>
+        <v>1.2720899999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>974.005000</v>
+        <v>974.005</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.220800</v>
+        <v>-87.220799999999997</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>4590.248454</v>
+        <v>4590.2484539999996</v>
       </c>
       <c r="AP10" s="1">
         <v>1.275069</v>
       </c>
       <c r="AQ10" s="1">
-        <v>983.233000</v>
+        <v>983.23299999999995</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.999000</v>
+        <v>-101.999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>4601.274055</v>
+        <v>4601.2740549999999</v>
       </c>
       <c r="AU10" s="1">
         <v>1.278132</v>
       </c>
       <c r="AV10" s="1">
-        <v>994.693000</v>
+        <v>994.69299999999998</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.291000</v>
+        <v>-123.291</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>4612.296617</v>
       </c>
       <c r="AZ10" s="1">
-        <v>1.281194</v>
+        <v>1.2811939999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1004.320000</v>
+        <v>1004.32</v>
       </c>
       <c r="BB10" s="1">
-        <v>-141.798000</v>
+        <v>-141.798</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>4622.927403</v>
+        <v>4622.9274029999997</v>
       </c>
       <c r="BE10" s="1">
-        <v>1.284147</v>
+        <v>1.2841469999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1049.380000</v>
+        <v>1049.3800000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-225.523000</v>
+        <v>-225.523</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>4633.722327</v>
+        <v>4633.7223270000004</v>
       </c>
       <c r="BJ10" s="1">
         <v>1.287145</v>
       </c>
       <c r="BK10" s="1">
-        <v>1127.970000</v>
+        <v>1127.97</v>
       </c>
       <c r="BL10" s="1">
-        <v>-359.918000</v>
+        <v>-359.91800000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>4645.015214</v>
       </c>
       <c r="BO10" s="1">
-        <v>1.290282</v>
+        <v>1.2902819999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1257.880000</v>
+        <v>1257.8800000000001</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-568.051000</v>
+        <v>-568.05100000000004</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>4655.505103</v>
+        <v>4655.5051030000004</v>
       </c>
       <c r="BT10" s="1">
         <v>1.293196</v>
       </c>
       <c r="BU10" s="1">
-        <v>1403.860000</v>
+        <v>1403.86</v>
       </c>
       <c r="BV10" s="1">
-        <v>-790.564000</v>
+        <v>-790.56399999999996</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>4666.442881</v>
+        <v>4666.4428809999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>1.296234</v>
+        <v>1.2962340000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1564.820000</v>
+        <v>1564.82</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1022.490000</v>
+        <v>-1022.49</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>4678.163843</v>
+        <v>4678.1638430000003</v>
       </c>
       <c r="CD10" s="1">
-        <v>1.299490</v>
+        <v>1.29949</v>
       </c>
       <c r="CE10" s="1">
-        <v>1970.040000</v>
+        <v>1970.04</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1563.150000</v>
+        <v>-1563.15</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>4506.632885</v>
       </c>
       <c r="B11" s="1">
-        <v>1.251842</v>
+        <v>1.2518419999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>902.529000</v>
+        <v>902.529</v>
       </c>
       <c r="D11" s="1">
-        <v>-195.013000</v>
+        <v>-195.01300000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>4517.098006</v>
+        <v>4517.0980060000002</v>
       </c>
       <c r="G11" s="1">
-        <v>1.254749</v>
+        <v>1.2547489999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>919.208000</v>
+        <v>919.20799999999997</v>
       </c>
       <c r="I11" s="1">
-        <v>-165.353000</v>
+        <v>-165.35300000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>4527.842312</v>
+        <v>4527.8423119999998</v>
       </c>
       <c r="L11" s="1">
-        <v>1.257734</v>
+        <v>1.2577339999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>941.300000</v>
+        <v>941.3</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.216000</v>
+        <v>-118.21599999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>4538.361962</v>
+        <v>4538.3619619999999</v>
       </c>
       <c r="Q11" s="1">
         <v>1.260656</v>
       </c>
       <c r="R11" s="1">
-        <v>947.637000</v>
+        <v>947.63699999999994</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.010000</v>
+        <v>-103.01</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>4548.831517</v>
+        <v>4548.8315169999996</v>
       </c>
       <c r="V11" s="1">
-        <v>1.263564</v>
+        <v>1.2635639999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>953.870000</v>
+        <v>953.87</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.392200</v>
+        <v>-89.392200000000003</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>4559.248992</v>
+        <v>4559.2489919999998</v>
       </c>
       <c r="AA11" s="1">
-        <v>1.266458</v>
+        <v>1.2664580000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>961.104000</v>
+        <v>961.10400000000004</v>
       </c>
       <c r="AC11" s="1">
-        <v>-79.857300</v>
+        <v>-79.857299999999995</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>4569.756737</v>
+        <v>4569.7567369999997</v>
       </c>
       <c r="AF11" s="1">
         <v>1.269377</v>
       </c>
       <c r="AG11" s="1">
-        <v>966.059000</v>
+        <v>966.05899999999997</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.494500</v>
+        <v>-79.494500000000002</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>4580.225795</v>
+        <v>4580.2257950000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>1.272285</v>
+        <v>1.2722850000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>974.017000</v>
+        <v>974.01700000000005</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.202200</v>
+        <v>-87.202200000000005</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>4590.966694</v>
+        <v>4590.9666939999997</v>
       </c>
       <c r="AP11" s="1">
         <v>1.275269</v>
       </c>
       <c r="AQ11" s="1">
-        <v>983.245000</v>
+        <v>983.245</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.988000</v>
+        <v>-101.988</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>4601.641083</v>
+        <v>4601.6410830000004</v>
       </c>
       <c r="AU11" s="1">
-        <v>1.278234</v>
+        <v>1.2782340000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>994.691000</v>
+        <v>994.69100000000003</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.282000</v>
+        <v>-123.282</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>4612.656712</v>
       </c>
       <c r="AZ11" s="1">
-        <v>1.281294</v>
+        <v>1.2812939999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1004.330000</v>
+        <v>1004.33</v>
       </c>
       <c r="BB11" s="1">
-        <v>-141.832000</v>
+        <v>-141.83199999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>4623.288458</v>
       </c>
       <c r="BE11" s="1">
-        <v>1.284247</v>
+        <v>1.2842469999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1049.400000</v>
+        <v>1049.4000000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-225.525000</v>
+        <v>-225.52500000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>4634.405476</v>
+        <v>4634.4054759999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>1.287335</v>
+        <v>1.2873349999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1127.990000</v>
+        <v>1127.99</v>
       </c>
       <c r="BL11" s="1">
-        <v>-359.923000</v>
+        <v>-359.923</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>4645.125821</v>
+        <v>4645.1258209999996</v>
       </c>
       <c r="BO11" s="1">
         <v>1.290313</v>
       </c>
       <c r="BP11" s="1">
-        <v>1257.890000</v>
+        <v>1257.8900000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-568.071000</v>
+        <v>-568.07100000000003</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>4655.622655</v>
+        <v>4655.6226550000001</v>
       </c>
       <c r="BT11" s="1">
         <v>1.293229</v>
       </c>
       <c r="BU11" s="1">
-        <v>1403.790000</v>
+        <v>1403.79</v>
       </c>
       <c r="BV11" s="1">
-        <v>-790.465000</v>
+        <v>-790.46500000000003</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>4666.864976</v>
+        <v>4666.8649759999998</v>
       </c>
       <c r="BY11" s="1">
         <v>1.296351</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1564.940000</v>
+        <v>1564.94</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1022.500000</v>
+        <v>-1022.5</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>4678.685153</v>
+        <v>4678.6851530000004</v>
       </c>
       <c r="CD11" s="1">
-        <v>1.299635</v>
+        <v>1.2996350000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1971.470000</v>
+        <v>1971.47</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1564.120000</v>
+        <v>-1564.12</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>4507.040627</v>
+        <v>4507.0406270000003</v>
       </c>
       <c r="B12" s="1">
-        <v>1.251956</v>
+        <v>1.2519560000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>902.560000</v>
+        <v>902.56</v>
       </c>
       <c r="D12" s="1">
-        <v>-194.979000</v>
+        <v>-194.97900000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>4517.372758</v>
+        <v>4517.3727580000004</v>
       </c>
       <c r="G12" s="1">
         <v>1.254826</v>
       </c>
       <c r="H12" s="1">
-        <v>919.302000</v>
+        <v>919.30200000000002</v>
       </c>
       <c r="I12" s="1">
-        <v>-165.191000</v>
+        <v>-165.191</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>4528.188519</v>
+        <v>4528.1885190000003</v>
       </c>
       <c r="L12" s="1">
-        <v>1.257830</v>
+        <v>1.25783</v>
       </c>
       <c r="M12" s="1">
-        <v>941.060000</v>
+        <v>941.06</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.211000</v>
+        <v>-118.211</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>4538.710682</v>
+        <v>4538.7106819999999</v>
       </c>
       <c r="Q12" s="1">
         <v>1.260753</v>
       </c>
       <c r="R12" s="1">
-        <v>947.643000</v>
+        <v>947.64300000000003</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.000000</v>
+        <v>-103</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>4549.175773</v>
+        <v>4549.1757729999999</v>
       </c>
       <c r="V12" s="1">
-        <v>1.263660</v>
+        <v>1.26366</v>
       </c>
       <c r="W12" s="1">
-        <v>953.986000</v>
+        <v>953.98599999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.352100</v>
+        <v>-89.352099999999993</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>4559.598174</v>
+        <v>4559.5981739999997</v>
       </c>
       <c r="AA12" s="1">
-        <v>1.266555</v>
+        <v>1.2665550000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>961.080000</v>
+        <v>961.08</v>
       </c>
       <c r="AC12" s="1">
-        <v>-79.907100</v>
+        <v>-79.9071</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>4570.444434</v>
@@ -3141,1737 +3557,1737 @@
         <v>1.269568</v>
       </c>
       <c r="AG12" s="1">
-        <v>966.082000</v>
+        <v>966.08199999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.491400</v>
+        <v>-79.491399999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>4580.573987</v>
+        <v>4580.5739869999998</v>
       </c>
       <c r="AK12" s="1">
-        <v>1.272382</v>
+        <v>1.2723819999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>974.004000</v>
+        <v>974.00400000000002</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.215300</v>
+        <v>-87.215299999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>4591.326045</v>
+        <v>4591.3260449999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>1.275368</v>
+        <v>1.2753680000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>983.234000</v>
+        <v>983.23400000000004</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.016000</v>
+        <v>-102.01600000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>4602.007110</v>
+        <v>4602.0071099999996</v>
       </c>
       <c r="AU12" s="1">
         <v>1.278335</v>
       </c>
       <c r="AV12" s="1">
-        <v>994.675000</v>
+        <v>994.67499999999995</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.283000</v>
+        <v>-123.283</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>4613.319863</v>
+        <v>4613.3198629999997</v>
       </c>
       <c r="AZ12" s="1">
-        <v>1.281478</v>
+        <v>1.2814779999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1004.320000</v>
+        <v>1004.32</v>
       </c>
       <c r="BB12" s="1">
-        <v>-141.811000</v>
+        <v>-141.81100000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>4623.952601</v>
       </c>
       <c r="BE12" s="1">
-        <v>1.284431</v>
+        <v>1.2844310000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1049.380000</v>
+        <v>1049.3800000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-225.522000</v>
+        <v>-225.52199999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>4634.513419</v>
+        <v>4634.5134189999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>1.287365</v>
+        <v>1.2873650000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1127.980000</v>
+        <v>1127.98</v>
       </c>
       <c r="BL12" s="1">
-        <v>-359.930000</v>
+        <v>-359.93</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>4645.551884</v>
+        <v>4645.5518840000004</v>
       </c>
       <c r="BO12" s="1">
-        <v>1.290431</v>
+        <v>1.2904310000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1257.920000</v>
+        <v>1257.92</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-568.057000</v>
+        <v>-568.05700000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>4656.061155</v>
+        <v>4656.0611550000003</v>
       </c>
       <c r="BT12" s="1">
-        <v>1.293350</v>
+        <v>1.29335</v>
       </c>
       <c r="BU12" s="1">
-        <v>1403.800000</v>
+        <v>1403.8</v>
       </c>
       <c r="BV12" s="1">
-        <v>-790.410000</v>
+        <v>-790.41</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>4667.287104</v>
       </c>
       <c r="BY12" s="1">
-        <v>1.296469</v>
+        <v>1.2964690000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1564.860000</v>
+        <v>1564.86</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1022.580000</v>
+        <v>-1022.58</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>4679.202497</v>
+        <v>4679.2024970000002</v>
       </c>
       <c r="CD12" s="1">
-        <v>1.299778</v>
+        <v>1.2997780000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1972.030000</v>
+        <v>1972.03</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1562.800000</v>
+        <v>-1562.8</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>4507.329267</v>
+        <v>4507.3292670000001</v>
       </c>
       <c r="B13" s="1">
-        <v>1.252036</v>
+        <v>1.2520359999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>902.680000</v>
+        <v>902.68</v>
       </c>
       <c r="D13" s="1">
-        <v>-194.941000</v>
+        <v>-194.941</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>4517.717477</v>
+        <v>4517.7174770000001</v>
       </c>
       <c r="G13" s="1">
-        <v>1.254922</v>
+        <v>1.2549220000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>919.340000</v>
+        <v>919.34</v>
       </c>
       <c r="I13" s="1">
-        <v>-165.270000</v>
+        <v>-165.27</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>4528.534231</v>
+        <v>4528.5342309999996</v>
       </c>
       <c r="L13" s="1">
-        <v>1.257926</v>
+        <v>1.2579260000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>941.282000</v>
+        <v>941.28200000000004</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.338000</v>
+        <v>-118.33799999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>4539.055902</v>
+        <v>4539.0559020000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>1.260849</v>
+        <v>1.2608490000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>947.610000</v>
+        <v>947.61</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.041000</v>
+        <v>-103.041</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>4549.863070</v>
+        <v>4549.8630700000003</v>
       </c>
       <c r="V13" s="1">
-        <v>1.263851</v>
+        <v>1.2638510000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>953.925000</v>
+        <v>953.92499999999995</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.347200</v>
+        <v>-89.347200000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>4560.290590</v>
+        <v>4560.2905899999996</v>
       </c>
       <c r="AA13" s="1">
-        <v>1.266747</v>
+        <v>1.2667470000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.094000</v>
+        <v>961.09400000000005</v>
       </c>
       <c r="AC13" s="1">
-        <v>-79.942500</v>
+        <v>-79.942499999999995</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>4570.785935</v>
+        <v>4570.7859349999999</v>
       </c>
       <c r="AF13" s="1">
         <v>1.269663</v>
       </c>
       <c r="AG13" s="1">
-        <v>966.054000</v>
+        <v>966.05399999999997</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.485100</v>
+        <v>-79.485100000000003</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>4580.923170</v>
+        <v>4580.92317</v>
       </c>
       <c r="AK13" s="1">
-        <v>1.272479</v>
+        <v>1.2724789999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>974.011000</v>
+        <v>974.01099999999997</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.202800</v>
+        <v>-87.202799999999996</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>4591.686357</v>
+        <v>4591.6863569999996</v>
       </c>
       <c r="AP13" s="1">
         <v>1.275468</v>
       </c>
       <c r="AQ13" s="1">
-        <v>983.218000</v>
+        <v>983.21799999999996</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.984000</v>
+        <v>-101.98399999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>4602.674229</v>
+        <v>4602.6742290000002</v>
       </c>
       <c r="AU13" s="1">
         <v>1.278521</v>
       </c>
       <c r="AV13" s="1">
-        <v>994.686000</v>
+        <v>994.68600000000004</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.292000</v>
+        <v>-123.292</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>4613.761798</v>
+        <v>4613.7617980000005</v>
       </c>
       <c r="AZ13" s="1">
-        <v>1.281600</v>
+        <v>1.2816000000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="BB13" s="1">
-        <v>-141.820000</v>
+        <v>-141.82</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>4624.403464</v>
       </c>
       <c r="BE13" s="1">
-        <v>1.284557</v>
+        <v>1.2845569999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1049.380000</v>
+        <v>1049.3800000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-225.525000</v>
+        <v>-225.52500000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>4634.873020</v>
+        <v>4634.87302</v>
       </c>
       <c r="BJ13" s="1">
-        <v>1.287465</v>
+        <v>1.2874650000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1127.960000</v>
+        <v>1127.96</v>
       </c>
       <c r="BL13" s="1">
-        <v>-359.953000</v>
+        <v>-359.95299999999997</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>4645.945708</v>
+        <v>4645.9457080000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>1.290540</v>
+        <v>1.29054</v>
       </c>
       <c r="BP13" s="1">
-        <v>1257.940000</v>
+        <v>1257.94</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-568.082000</v>
+        <v>-568.08199999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>4656.473790</v>
+        <v>4656.47379</v>
       </c>
       <c r="BT13" s="1">
-        <v>1.293465</v>
+        <v>1.2934650000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1403.890000</v>
+        <v>1403.89</v>
       </c>
       <c r="BV13" s="1">
-        <v>-790.414000</v>
+        <v>-790.41399999999999</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>4667.742911</v>
+        <v>4667.7429110000003</v>
       </c>
       <c r="BY13" s="1">
-        <v>1.296595</v>
+        <v>1.2965949999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1564.960000</v>
+        <v>1564.96</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1022.600000</v>
+        <v>-1022.6</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>4679.720785</v>
+        <v>4679.7207850000004</v>
       </c>
       <c r="CD13" s="1">
         <v>1.299922</v>
       </c>
       <c r="CE13" s="1">
-        <v>1970.830000</v>
+        <v>1970.83</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1562.240000</v>
+        <v>-1562.24</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>4507.671538</v>
+        <v>4507.6715379999996</v>
       </c>
       <c r="B14" s="1">
-        <v>1.252131</v>
+        <v>1.2521310000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>902.811000</v>
+        <v>902.81100000000004</v>
       </c>
       <c r="D14" s="1">
-        <v>-195.017000</v>
+        <v>-195.017</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>4518.061701</v>
+        <v>4518.0617009999996</v>
       </c>
       <c r="G14" s="1">
         <v>1.255017</v>
       </c>
       <c r="H14" s="1">
-        <v>919.366000</v>
+        <v>919.36599999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-165.069000</v>
+        <v>-165.06899999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>4529.223174</v>
+        <v>4529.2231739999997</v>
       </c>
       <c r="L14" s="1">
-        <v>1.258118</v>
+        <v>1.2581180000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>941.217000</v>
+        <v>941.21699999999998</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.356000</v>
+        <v>-118.35599999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>4539.755256</v>
+        <v>4539.7552560000004</v>
       </c>
       <c r="Q14" s="1">
-        <v>1.261043</v>
+        <v>1.2610429999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>947.602000</v>
+        <v>947.60199999999998</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.996000</v>
+        <v>-102.996</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>4550.205434</v>
+        <v>4550.2054340000004</v>
       </c>
       <c r="V14" s="1">
         <v>1.263946</v>
       </c>
       <c r="W14" s="1">
-        <v>953.906000</v>
+        <v>953.90599999999995</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.341600</v>
+        <v>-89.3416</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>4560.641293</v>
+        <v>4560.6412929999997</v>
       </c>
       <c r="AA14" s="1">
         <v>1.266845</v>
       </c>
       <c r="AB14" s="1">
-        <v>961.108000</v>
+        <v>961.10799999999995</v>
       </c>
       <c r="AC14" s="1">
-        <v>-79.981600</v>
+        <v>-79.9816</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>4571.129663</v>
+        <v>4571.1296629999997</v>
       </c>
       <c r="AF14" s="1">
-        <v>1.269758</v>
+        <v>1.2697579999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>966.039000</v>
+        <v>966.03899999999999</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.529300</v>
+        <v>-79.529300000000006</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>4581.581361</v>
+        <v>4581.5813609999996</v>
       </c>
       <c r="AK14" s="1">
         <v>1.272661</v>
       </c>
       <c r="AL14" s="1">
-        <v>974.026000</v>
+        <v>974.02599999999995</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.214500</v>
+        <v>-87.214500000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>4592.352482</v>
+        <v>4592.3524820000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>1.275653</v>
+        <v>1.2756529999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>983.252000</v>
+        <v>983.25199999999995</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.999000</v>
+        <v>-101.999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>4603.100292</v>
+        <v>4603.1002920000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>1.278639</v>
+        <v>1.2786390000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>994.681000</v>
+        <v>994.68100000000004</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.288000</v>
+        <v>-123.288</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>4614.107123</v>
+        <v>4614.1071229999998</v>
       </c>
       <c r="AZ14" s="1">
-        <v>1.281696</v>
+        <v>1.2816959999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1004.310000</v>
+        <v>1004.31</v>
       </c>
       <c r="BB14" s="1">
-        <v>-141.818000</v>
+        <v>-141.81800000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>4624.767032</v>
+        <v>4624.7670319999997</v>
       </c>
       <c r="BE14" s="1">
-        <v>1.284658</v>
+        <v>1.2846580000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1049.390000</v>
+        <v>1049.3900000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-225.508000</v>
+        <v>-225.50800000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>4635.249482</v>
+        <v>4635.2494820000002</v>
       </c>
       <c r="BJ14" s="1">
         <v>1.287569</v>
       </c>
       <c r="BK14" s="1">
-        <v>1127.980000</v>
+        <v>1127.98</v>
       </c>
       <c r="BL14" s="1">
-        <v>-359.957000</v>
+        <v>-359.95699999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>4646.371066</v>
+        <v>4646.3710659999997</v>
       </c>
       <c r="BO14" s="1">
         <v>1.290659</v>
       </c>
       <c r="BP14" s="1">
-        <v>1257.920000</v>
+        <v>1257.92</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-568.065000</v>
+        <v>-568.06500000000005</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>4656.902830</v>
+        <v>4656.90283</v>
       </c>
       <c r="BT14" s="1">
-        <v>1.293584</v>
+        <v>1.2935840000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1403.850000</v>
+        <v>1403.85</v>
       </c>
       <c r="BV14" s="1">
-        <v>-790.354000</v>
+        <v>-790.35400000000004</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>4668.158543</v>
+        <v>4668.1585429999996</v>
       </c>
       <c r="BY14" s="1">
-        <v>1.296711</v>
+        <v>1.2967109999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1565.040000</v>
+        <v>1565.04</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1022.480000</v>
+        <v>-1022.48</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>4680.238111</v>
+        <v>4680.2381109999997</v>
       </c>
       <c r="CD14" s="1">
-        <v>1.300066</v>
+        <v>1.3000659999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1971.330000</v>
+        <v>1971.33</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1561.920000</v>
+        <v>-1561.92</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>4508.013289</v>
+        <v>4508.0132890000004</v>
       </c>
       <c r="B15" s="1">
-        <v>1.252226</v>
+        <v>1.2522260000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>902.720000</v>
+        <v>902.72</v>
       </c>
       <c r="D15" s="1">
-        <v>-194.684000</v>
+        <v>-194.684</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>4518.753647</v>
+        <v>4518.7536469999995</v>
       </c>
       <c r="G15" s="1">
         <v>1.255209</v>
       </c>
       <c r="H15" s="1">
-        <v>919.226000</v>
+        <v>919.226</v>
       </c>
       <c r="I15" s="1">
-        <v>-165.189000</v>
+        <v>-165.18899999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>4529.569414</v>
+        <v>4529.5694139999996</v>
       </c>
       <c r="L15" s="1">
-        <v>1.258214</v>
+        <v>1.2582139999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>941.227000</v>
+        <v>941.22699999999998</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.171000</v>
+        <v>-118.17100000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>4540.105896</v>
       </c>
       <c r="Q15" s="1">
-        <v>1.261141</v>
+        <v>1.2611410000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>947.626000</v>
+        <v>947.62599999999998</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.031000</v>
+        <v>-103.03100000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>4550.549162</v>
+        <v>4550.5491620000003</v>
       </c>
       <c r="V15" s="1">
         <v>1.264041</v>
       </c>
       <c r="W15" s="1">
-        <v>953.893000</v>
+        <v>953.89300000000003</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.270400</v>
+        <v>-89.270399999999995</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>4561.300941</v>
+        <v>4561.3009410000004</v>
       </c>
       <c r="AA15" s="1">
         <v>1.267028</v>
       </c>
       <c r="AB15" s="1">
-        <v>961.168000</v>
+        <v>961.16800000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-79.969000</v>
+        <v>-79.968999999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>4571.784910</v>
+        <v>4571.7849100000003</v>
       </c>
       <c r="AF15" s="1">
-        <v>1.269940</v>
+        <v>1.2699400000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>966.024000</v>
+        <v>966.024</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.488800</v>
+        <v>-79.488799999999998</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>4581.968242</v>
+        <v>4581.9682419999999</v>
       </c>
       <c r="AK15" s="1">
         <v>1.272769</v>
       </c>
       <c r="AL15" s="1">
-        <v>974.002000</v>
+        <v>974.00199999999995</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.218200</v>
+        <v>-87.218199999999996</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>4592.790450</v>
+        <v>4592.7904500000004</v>
       </c>
       <c r="AP15" s="1">
-        <v>1.275775</v>
+        <v>1.2757750000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>983.257000</v>
+        <v>983.25699999999995</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.974000</v>
+        <v>-101.974</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>4603.461876</v>
+        <v>4603.4618760000003</v>
       </c>
       <c r="AU15" s="1">
-        <v>1.278739</v>
+        <v>1.2787390000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>994.671000</v>
+        <v>994.67100000000005</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.292000</v>
+        <v>-123.292</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>4614.480999</v>
+        <v>4614.4809990000003</v>
       </c>
       <c r="AZ15" s="1">
-        <v>1.281800</v>
+        <v>1.2818000000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1004.310000</v>
+        <v>1004.31</v>
       </c>
       <c r="BB15" s="1">
-        <v>-141.797000</v>
+        <v>-141.797</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>4625.127128</v>
+        <v>4625.1271280000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>1.284758</v>
+        <v>1.2847580000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1049.370000</v>
+        <v>1049.3699999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-225.552000</v>
+        <v>-225.55199999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>4635.672074</v>
+        <v>4635.6720740000001</v>
       </c>
       <c r="BJ15" s="1">
         <v>1.287687</v>
       </c>
       <c r="BK15" s="1">
-        <v>1127.980000</v>
+        <v>1127.98</v>
       </c>
       <c r="BL15" s="1">
-        <v>-359.946000</v>
+        <v>-359.94600000000003</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>4646.765594</v>
+        <v>4646.7655940000004</v>
       </c>
       <c r="BO15" s="1">
-        <v>1.290768</v>
+        <v>1.2907679999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1257.920000</v>
+        <v>1257.92</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-568.082000</v>
+        <v>-568.08199999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>4657.330380</v>
+        <v>4657.3303800000003</v>
       </c>
       <c r="BT15" s="1">
         <v>1.293703</v>
       </c>
       <c r="BU15" s="1">
-        <v>1403.900000</v>
+        <v>1403.9</v>
       </c>
       <c r="BV15" s="1">
-        <v>-790.331000</v>
+        <v>-790.33100000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>4668.612878</v>
+        <v>4668.6128779999999</v>
       </c>
       <c r="BY15" s="1">
         <v>1.296837</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1564.970000</v>
+        <v>1564.97</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1022.600000</v>
+        <v>-1022.6</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>4680.788174</v>
+        <v>4680.7881740000003</v>
       </c>
       <c r="CD15" s="1">
         <v>1.300219</v>
       </c>
       <c r="CE15" s="1">
-        <v>1972.320000</v>
+        <v>1972.32</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1562.840000</v>
+        <v>-1562.84</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>4508.695779</v>
+        <v>4508.6957789999997</v>
       </c>
       <c r="B16" s="1">
-        <v>1.252415</v>
+        <v>1.2524150000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>902.559000</v>
+        <v>902.55899999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>-194.988000</v>
+        <v>-194.988</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>4519.095364</v>
+        <v>4519.0953639999998</v>
       </c>
       <c r="G16" s="1">
         <v>1.255304</v>
       </c>
       <c r="H16" s="1">
-        <v>919.388000</v>
+        <v>919.38800000000003</v>
       </c>
       <c r="I16" s="1">
-        <v>-165.052000</v>
+        <v>-165.05199999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>4529.915093</v>
+        <v>4529.9150929999996</v>
       </c>
       <c r="L16" s="1">
-        <v>1.258310</v>
+        <v>1.25831</v>
       </c>
       <c r="M16" s="1">
-        <v>941.148000</v>
+        <v>941.14800000000002</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.055000</v>
+        <v>-118.05500000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>4540.453096</v>
+        <v>4540.4530960000002</v>
       </c>
       <c r="Q16" s="1">
-        <v>1.261237</v>
+        <v>1.2612369999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>947.630000</v>
+        <v>947.63</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.005000</v>
+        <v>-103.005</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>4551.196271</v>
+        <v>4551.1962709999998</v>
       </c>
       <c r="V16" s="1">
         <v>1.264221</v>
       </c>
       <c r="W16" s="1">
-        <v>953.957000</v>
+        <v>953.95699999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.382800</v>
+        <v>-89.382800000000003</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>4561.689831</v>
+        <v>4561.6898309999997</v>
       </c>
       <c r="AA16" s="1">
         <v>1.267136</v>
       </c>
       <c r="AB16" s="1">
-        <v>961.160000</v>
+        <v>961.16</v>
       </c>
       <c r="AC16" s="1">
-        <v>-79.948100</v>
+        <v>-79.948099999999997</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>4572.159357</v>
+        <v>4572.1593570000005</v>
       </c>
       <c r="AF16" s="1">
         <v>1.270044</v>
       </c>
       <c r="AG16" s="1">
-        <v>966.058000</v>
+        <v>966.05799999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.508000</v>
+        <v>-79.507999999999996</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>4582.315936</v>
       </c>
       <c r="AK16" s="1">
-        <v>1.272866</v>
+        <v>1.2728660000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>974.018000</v>
+        <v>974.01800000000003</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.200600</v>
+        <v>-87.200599999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>4593.155010</v>
+        <v>4593.1550100000004</v>
       </c>
       <c r="AP16" s="1">
         <v>1.275876</v>
       </c>
       <c r="AQ16" s="1">
-        <v>983.264000</v>
+        <v>983.26400000000001</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.990000</v>
+        <v>-101.99</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>4603.830404</v>
+        <v>4603.8304040000003</v>
       </c>
       <c r="AU16" s="1">
         <v>1.278842</v>
       </c>
       <c r="AV16" s="1">
-        <v>994.669000</v>
+        <v>994.66899999999998</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.285000</v>
+        <v>-123.285</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>4614.889701</v>
+        <v>4614.8897010000001</v>
       </c>
       <c r="AZ16" s="1">
         <v>1.281914</v>
       </c>
       <c r="BA16" s="1">
-        <v>1004.330000</v>
+        <v>1004.33</v>
       </c>
       <c r="BB16" s="1">
-        <v>-141.791000</v>
+        <v>-141.791</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>4625.545255</v>
       </c>
       <c r="BE16" s="1">
-        <v>1.284874</v>
+        <v>1.2848740000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1049.380000</v>
+        <v>1049.3800000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-225.537000</v>
+        <v>-225.53700000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>4636.008857</v>
+        <v>4636.0088569999998</v>
       </c>
       <c r="BJ16" s="1">
-        <v>1.287780</v>
+        <v>1.2877799999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1127.970000</v>
+        <v>1127.97</v>
       </c>
       <c r="BL16" s="1">
-        <v>-359.954000</v>
+        <v>-359.95400000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>4647.186698</v>
+        <v>4647.1866980000004</v>
       </c>
       <c r="BO16" s="1">
-        <v>1.290885</v>
+        <v>1.2908850000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1257.880000</v>
+        <v>1257.8800000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-568.107000</v>
+        <v>-568.10699999999997</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>4657.743091</v>
+        <v>4657.7430910000003</v>
       </c>
       <c r="BT16" s="1">
-        <v>1.293818</v>
+        <v>1.2938179999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1403.990000</v>
+        <v>1403.99</v>
       </c>
       <c r="BV16" s="1">
-        <v>-790.206000</v>
+        <v>-790.20600000000002</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>4669.059309</v>
+        <v>4669.0593090000002</v>
       </c>
       <c r="BY16" s="1">
         <v>1.296961</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1564.940000</v>
+        <v>1564.94</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1022.330000</v>
+        <v>-1022.33</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>4681.316910</v>
+        <v>4681.3169099999996</v>
       </c>
       <c r="CD16" s="1">
-        <v>1.300366</v>
+        <v>1.3003659999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1970.850000</v>
+        <v>1970.85</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1562.590000</v>
+        <v>-1562.59</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>4509.038977</v>
+        <v>4509.0389770000002</v>
       </c>
       <c r="B17" s="1">
-        <v>1.252511</v>
+        <v>1.2525109999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>902.700000</v>
+        <v>902.7</v>
       </c>
       <c r="D17" s="1">
-        <v>-194.894000</v>
+        <v>-194.89400000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>4519.439091</v>
+        <v>4519.4390910000002</v>
       </c>
       <c r="G17" s="1">
-        <v>1.255400</v>
+        <v>1.2554000000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>919.292000</v>
+        <v>919.29200000000003</v>
       </c>
       <c r="I17" s="1">
-        <v>-165.480000</v>
+        <v>-165.48</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>4530.570310</v>
+        <v>4530.5703100000001</v>
       </c>
       <c r="L17" s="1">
-        <v>1.258492</v>
+        <v>1.2584919999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>941.208000</v>
+        <v>941.20799999999997</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.270000</v>
+        <v>-118.27</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>4541.107351</v>
+        <v>4541.1073509999997</v>
       </c>
       <c r="Q17" s="1">
-        <v>1.261419</v>
+        <v>1.2614190000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>947.656000</v>
+        <v>947.65599999999995</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.038000</v>
+        <v>-103.038</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>4551.578867</v>
+        <v>4551.5788670000002</v>
       </c>
       <c r="V17" s="1">
         <v>1.264327</v>
       </c>
       <c r="W17" s="1">
-        <v>954.032000</v>
+        <v>954.03200000000004</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.383200</v>
+        <v>-89.383200000000002</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>4562.033072</v>
+        <v>4562.0330720000002</v>
       </c>
       <c r="AA17" s="1">
         <v>1.267231</v>
       </c>
       <c r="AB17" s="1">
-        <v>961.134000</v>
+        <v>961.13400000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.025200</v>
+        <v>-80.025199999999998</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>4572.503117</v>
+        <v>4572.5031170000002</v>
       </c>
       <c r="AF17" s="1">
-        <v>1.270140</v>
+        <v>1.27014</v>
       </c>
       <c r="AG17" s="1">
-        <v>966.059000</v>
+        <v>966.05899999999997</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.492200</v>
+        <v>-79.492199999999997</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>4582.663135</v>
+        <v>4582.6631349999998</v>
       </c>
       <c r="AK17" s="1">
-        <v>1.272962</v>
+        <v>1.2729619999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>974.014000</v>
+        <v>974.01400000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.214000</v>
+        <v>-87.213999999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>4593.515105</v>
+        <v>4593.5151050000004</v>
       </c>
       <c r="AP17" s="1">
         <v>1.275976</v>
       </c>
       <c r="AQ17" s="1">
-        <v>983.259000</v>
+        <v>983.25900000000001</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.002000</v>
+        <v>-102.002</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>4604.251043</v>
+        <v>4604.2510430000002</v>
       </c>
       <c r="AU17" s="1">
         <v>1.278959</v>
       </c>
       <c r="AV17" s="1">
-        <v>994.677000</v>
+        <v>994.67700000000002</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.308000</v>
+        <v>-123.30800000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>4615.195268</v>
+        <v>4615.1952680000004</v>
       </c>
       <c r="AZ17" s="1">
-        <v>1.281999</v>
+        <v>1.2819990000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1004.320000</v>
+        <v>1004.32</v>
       </c>
       <c r="BB17" s="1">
-        <v>-141.809000</v>
+        <v>-141.809</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>4625.848311</v>
+        <v>4625.8483109999997</v>
       </c>
       <c r="BE17" s="1">
         <v>1.284958</v>
       </c>
       <c r="BF17" s="1">
-        <v>1049.360000</v>
+        <v>1049.3599999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-225.534000</v>
+        <v>-225.53399999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>4636.397224</v>
+        <v>4636.3972240000003</v>
       </c>
       <c r="BJ17" s="1">
-        <v>1.287888</v>
+        <v>1.2878879999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1127.980000</v>
+        <v>1127.98</v>
       </c>
       <c r="BL17" s="1">
-        <v>-359.918000</v>
+        <v>-359.91800000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>4647.586475</v>
+        <v>4647.5864750000001</v>
       </c>
       <c r="BO17" s="1">
         <v>1.290996</v>
       </c>
       <c r="BP17" s="1">
-        <v>1257.940000</v>
+        <v>1257.94</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-568.088000</v>
+        <v>-568.08799999999997</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>4658.174572</v>
+        <v>4658.1745719999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>1.293937</v>
+        <v>1.2939369999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1404.000000</v>
+        <v>1404</v>
       </c>
       <c r="BV17" s="1">
-        <v>-790.297000</v>
+        <v>-790.29700000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>4669.484349</v>
+        <v>4669.4843490000003</v>
       </c>
       <c r="BY17" s="1">
-        <v>1.297079</v>
+        <v>1.2970790000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1564.900000</v>
+        <v>1564.9</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1022.420000</v>
+        <v>-1022.42</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>4681.835229</v>
+        <v>4681.8352290000003</v>
       </c>
       <c r="CD17" s="1">
-        <v>1.300510</v>
+        <v>1.3005100000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1971.100000</v>
+        <v>1971.1</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1564.090000</v>
+        <v>-1564.09</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>4509.382706</v>
+        <v>4509.3827060000003</v>
       </c>
       <c r="B18" s="1">
-        <v>1.252606</v>
+        <v>1.2526060000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>902.635000</v>
+        <v>902.63499999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-195.113000</v>
+        <v>-195.113</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>4520.094802</v>
+        <v>4520.0948019999996</v>
       </c>
       <c r="G18" s="1">
         <v>1.255582</v>
       </c>
       <c r="H18" s="1">
-        <v>919.418000</v>
+        <v>919.41800000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-165.013000</v>
+        <v>-165.01300000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>4530.950773</v>
+        <v>4530.9507729999996</v>
       </c>
       <c r="L18" s="1">
         <v>1.258597</v>
       </c>
       <c r="M18" s="1">
-        <v>941.073000</v>
+        <v>941.07299999999998</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.235000</v>
+        <v>-118.235</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>4541.499686</v>
+        <v>4541.4996860000001</v>
       </c>
       <c r="Q18" s="1">
         <v>1.261528</v>
       </c>
       <c r="R18" s="1">
-        <v>947.612000</v>
+        <v>947.61199999999997</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.063000</v>
+        <v>-103.063</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>4551.922616</v>
+        <v>4551.9226159999998</v>
       </c>
       <c r="V18" s="1">
-        <v>1.264423</v>
+        <v>1.2644230000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>954.032000</v>
+        <v>954.03200000000004</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.335500</v>
+        <v>-89.335499999999996</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>4562.384698</v>
+        <v>4562.3846979999998</v>
       </c>
       <c r="AA18" s="1">
-        <v>1.267329</v>
+        <v>1.2673289999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>961.127000</v>
+        <v>961.12699999999995</v>
       </c>
       <c r="AC18" s="1">
-        <v>-79.901700</v>
+        <v>-79.901700000000005</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>4572.849293</v>
+        <v>4572.8492930000002</v>
       </c>
       <c r="AF18" s="1">
-        <v>1.270236</v>
+        <v>1.2702359999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>966.056000</v>
+        <v>966.05600000000004</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.517400</v>
+        <v>-79.517399999999995</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>4583.068863</v>
+        <v>4583.0688630000004</v>
       </c>
       <c r="AK18" s="1">
         <v>1.273075</v>
       </c>
       <c r="AL18" s="1">
-        <v>974.005000</v>
+        <v>974.005</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.195100</v>
+        <v>-87.195099999999996</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>4593.984817</v>
+        <v>4593.9848169999996</v>
       </c>
       <c r="AP18" s="1">
-        <v>1.276107</v>
+        <v>1.2761070000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>983.259000</v>
+        <v>983.25900000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.003000</v>
+        <v>-102.003</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>4604.556547</v>
+        <v>4604.5565470000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>1.279043</v>
+        <v>1.2790429999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>994.672000</v>
+        <v>994.67200000000003</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.275000</v>
+        <v>-123.27500000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>4615.555332</v>
+        <v>4615.5553319999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>1.282099</v>
+        <v>1.2820990000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1004.310000</v>
+        <v>1004.31</v>
       </c>
       <c r="BB18" s="1">
-        <v>-141.820000</v>
+        <v>-141.82</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>4626.210886</v>
+        <v>4626.2108859999998</v>
       </c>
       <c r="BE18" s="1">
         <v>1.285059</v>
       </c>
       <c r="BF18" s="1">
-        <v>1049.390000</v>
+        <v>1049.3900000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-225.525000</v>
+        <v>-225.52500000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>4636.771935</v>
+        <v>4636.7719349999998</v>
       </c>
       <c r="BJ18" s="1">
         <v>1.287992</v>
       </c>
       <c r="BK18" s="1">
-        <v>1127.980000</v>
+        <v>1127.98</v>
       </c>
       <c r="BL18" s="1">
-        <v>-359.941000</v>
+        <v>-359.94099999999997</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>4648.006089</v>
+        <v>4648.0060890000004</v>
       </c>
       <c r="BO18" s="1">
         <v>1.291113</v>
       </c>
       <c r="BP18" s="1">
-        <v>1257.960000</v>
+        <v>1257.96</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-568.100000</v>
+        <v>-568.1</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>4658.602620</v>
+        <v>4658.6026199999997</v>
       </c>
       <c r="BT18" s="1">
-        <v>1.294056</v>
+        <v>1.2940560000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1404.090000</v>
+        <v>1404.09</v>
       </c>
       <c r="BV18" s="1">
-        <v>-790.283000</v>
+        <v>-790.28300000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>4669.905490</v>
+        <v>4669.9054900000001</v>
       </c>
       <c r="BY18" s="1">
         <v>1.297196</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1564.890000</v>
+        <v>1564.89</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1022.440000</v>
+        <v>-1022.44</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>4682.378879</v>
+        <v>4682.3788789999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>1.300661</v>
+        <v>1.3006610000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1972.360000</v>
+        <v>1972.36</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1562.720000</v>
+        <v>-1562.72</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>4510.022545</v>
+        <v>4510.0225449999998</v>
       </c>
       <c r="B19" s="1">
-        <v>1.252784</v>
+        <v>1.2527839999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>902.654000</v>
+        <v>902.654</v>
       </c>
       <c r="D19" s="1">
-        <v>-195.061000</v>
+        <v>-195.06100000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>4520.471762</v>
+        <v>4520.4717620000001</v>
       </c>
       <c r="G19" s="1">
         <v>1.255687</v>
       </c>
       <c r="H19" s="1">
-        <v>919.141000</v>
+        <v>919.14099999999996</v>
       </c>
       <c r="I19" s="1">
-        <v>-165.280000</v>
+        <v>-165.28</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>4531.298436</v>
@@ -4880,390 +5296,390 @@
         <v>1.258694</v>
       </c>
       <c r="M19" s="1">
-        <v>941.225000</v>
+        <v>941.22500000000002</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.224000</v>
+        <v>-118.224</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>4541.847351</v>
+        <v>4541.8473510000003</v>
       </c>
       <c r="Q19" s="1">
-        <v>1.261624</v>
+        <v>1.2616240000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>947.587000</v>
+        <v>947.58699999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.031000</v>
+        <v>-103.03100000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>4552.266344</v>
+        <v>4552.2663439999997</v>
       </c>
       <c r="V19" s="1">
         <v>1.264518</v>
       </c>
       <c r="W19" s="1">
-        <v>954.003000</v>
+        <v>954.00300000000004</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.349100</v>
+        <v>-89.349100000000007</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>4562.801865</v>
+        <v>4562.8018650000004</v>
       </c>
       <c r="AA19" s="1">
-        <v>1.267445</v>
+        <v>1.2674449999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.076000</v>
+        <v>961.07600000000002</v>
       </c>
       <c r="AC19" s="1">
-        <v>-79.905400</v>
+        <v>-79.9054</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>4573.265436</v>
+        <v>4573.2654359999997</v>
       </c>
       <c r="AF19" s="1">
-        <v>1.270352</v>
+        <v>1.2703519999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>966.034000</v>
+        <v>966.03399999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.501600</v>
+        <v>-79.501599999999996</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>4583.367455</v>
+        <v>4583.3674549999996</v>
       </c>
       <c r="AK19" s="1">
         <v>1.273158</v>
       </c>
       <c r="AL19" s="1">
-        <v>974.015000</v>
+        <v>974.01499999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.189300</v>
+        <v>-87.189300000000003</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>4594.233314</v>
+        <v>4594.2333140000001</v>
       </c>
       <c r="AP19" s="1">
         <v>1.276176</v>
       </c>
       <c r="AQ19" s="1">
-        <v>983.248000</v>
+        <v>983.24800000000005</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.986000</v>
+        <v>-101.986</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>4604.923122</v>
+        <v>4604.9231220000001</v>
       </c>
       <c r="AU19" s="1">
         <v>1.279145</v>
       </c>
       <c r="AV19" s="1">
-        <v>994.684000</v>
+        <v>994.68399999999997</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.294000</v>
+        <v>-123.294</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>4615.913444</v>
+        <v>4615.9134439999998</v>
       </c>
       <c r="AZ19" s="1">
-        <v>1.282198</v>
+        <v>1.2821979999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1004.310000</v>
+        <v>1004.31</v>
       </c>
       <c r="BB19" s="1">
-        <v>-141.828000</v>
+        <v>-141.828</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>4626.570983</v>
+        <v>4626.5709829999996</v>
       </c>
       <c r="BE19" s="1">
-        <v>1.285159</v>
+        <v>1.2851589999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1049.390000</v>
+        <v>1049.3900000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-225.522000</v>
+        <v>-225.52199999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>4637.523640</v>
+        <v>4637.5236400000003</v>
       </c>
       <c r="BJ19" s="1">
-        <v>1.288201</v>
+        <v>1.2882009999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1127.960000</v>
+        <v>1127.96</v>
       </c>
       <c r="BL19" s="1">
-        <v>-359.949000</v>
+        <v>-359.94900000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>4648.399914</v>
+        <v>4648.3999139999996</v>
       </c>
       <c r="BO19" s="1">
-        <v>1.291222</v>
+        <v>1.2912220000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1257.900000</v>
+        <v>1257.9000000000001</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-568.070000</v>
+        <v>-568.07000000000005</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>4659.011357</v>
+        <v>4659.0113570000003</v>
       </c>
       <c r="BT19" s="1">
-        <v>1.294170</v>
+        <v>1.29417</v>
       </c>
       <c r="BU19" s="1">
-        <v>1404.090000</v>
+        <v>1404.09</v>
       </c>
       <c r="BV19" s="1">
-        <v>-790.251000</v>
+        <v>-790.25099999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>4670.331056</v>
       </c>
       <c r="BY19" s="1">
-        <v>1.297314</v>
+        <v>1.2973140000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1564.980000</v>
+        <v>1564.98</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1022.590000</v>
+        <v>-1022.59</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>4683.225547</v>
       </c>
       <c r="CD19" s="1">
-        <v>1.300896</v>
+        <v>1.3008960000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1971.440000</v>
+        <v>1971.44</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1564.580000</v>
+        <v>-1564.58</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>4510.440699</v>
+        <v>4510.4406989999998</v>
       </c>
       <c r="B20" s="1">
-        <v>1.252900</v>
+        <v>1.2528999999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>902.571000</v>
+        <v>902.57100000000003</v>
       </c>
       <c r="D20" s="1">
-        <v>-195.073000</v>
+        <v>-195.07300000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>4520.819489</v>
+        <v>4520.8194890000004</v>
       </c>
       <c r="G20" s="1">
-        <v>1.255783</v>
+        <v>1.2557830000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>919.466000</v>
+        <v>919.46600000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-165.328000</v>
+        <v>-165.328</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>4531.633235</v>
+        <v>4531.6332350000002</v>
       </c>
       <c r="L20" s="1">
-        <v>1.258787</v>
+        <v>1.2587870000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>941.208000</v>
+        <v>941.20799999999997</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.281000</v>
+        <v>-118.28100000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>4542.193557</v>
+        <v>4542.1935569999996</v>
       </c>
       <c r="Q20" s="1">
-        <v>1.261720</v>
+        <v>1.26172</v>
       </c>
       <c r="R20" s="1">
-        <v>947.617000</v>
+        <v>947.61699999999996</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.029000</v>
+        <v>-103.029</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>4552.680471</v>
+        <v>4552.6804709999997</v>
       </c>
       <c r="V20" s="1">
-        <v>1.264633</v>
+        <v>1.2646329999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>953.970000</v>
+        <v>953.97</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.356300</v>
+        <v>-89.356300000000005</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>4563.081610</v>
+        <v>4563.0816100000002</v>
       </c>
       <c r="AA20" s="1">
         <v>1.267523</v>
       </c>
       <c r="AB20" s="1">
-        <v>961.126000</v>
+        <v>961.12599999999998</v>
       </c>
       <c r="AC20" s="1">
-        <v>-79.933800</v>
+        <v>-79.933800000000005</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>4573.555099</v>
+        <v>4573.5550990000002</v>
       </c>
       <c r="AF20" s="1">
         <v>1.270432</v>
       </c>
       <c r="AG20" s="1">
-        <v>966.044000</v>
+        <v>966.04399999999998</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.497500</v>
+        <v>-79.497500000000002</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>4583.712205</v>
+        <v>4583.7122049999998</v>
       </c>
       <c r="AK20" s="1">
         <v>1.273253</v>
       </c>
       <c r="AL20" s="1">
-        <v>974.035000</v>
+        <v>974.03499999999997</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.195600</v>
+        <v>-87.195599999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>4594.593447</v>
+        <v>4594.5934470000002</v>
       </c>
       <c r="AP20" s="1">
         <v>1.276276</v>
       </c>
       <c r="AQ20" s="1">
-        <v>983.257000</v>
+        <v>983.25699999999995</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.993000</v>
+        <v>-101.99299999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>4605.288643</v>
+        <v>4605.2886429999999</v>
       </c>
       <c r="AU20" s="1">
         <v>1.279247</v>
       </c>
       <c r="AV20" s="1">
-        <v>994.694000</v>
+        <v>994.69399999999996</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.303000</v>
+        <v>-123.303</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>4616.631155</v>
       </c>
       <c r="AZ20" s="1">
-        <v>1.282398</v>
+        <v>1.2823979999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1004.320000</v>
+        <v>1004.32</v>
       </c>
       <c r="BB20" s="1">
-        <v>-141.819000</v>
+        <v>-141.81899999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>4627.340279</v>
@@ -5272,240 +5688,240 @@
         <v>1.285372</v>
       </c>
       <c r="BF20" s="1">
-        <v>1049.380000</v>
+        <v>1049.3800000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-225.517000</v>
+        <v>-225.517</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>4637.897655</v>
+        <v>4637.8976549999998</v>
       </c>
       <c r="BJ20" s="1">
         <v>1.288305</v>
       </c>
       <c r="BK20" s="1">
-        <v>1128.000000</v>
+        <v>1128</v>
       </c>
       <c r="BL20" s="1">
-        <v>-359.915000</v>
+        <v>-359.91500000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>4648.821545</v>
+        <v>4648.8215449999998</v>
       </c>
       <c r="BO20" s="1">
         <v>1.291339</v>
       </c>
       <c r="BP20" s="1">
-        <v>1257.910000</v>
+        <v>1257.9100000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-568.100000</v>
+        <v>-568.1</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>4659.444330</v>
+        <v>4659.4443300000003</v>
       </c>
       <c r="BT20" s="1">
-        <v>1.294290</v>
+        <v>1.2942899999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1404.160000</v>
+        <v>1404.16</v>
       </c>
       <c r="BV20" s="1">
-        <v>-790.223000</v>
+        <v>-790.22299999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>4671.054187</v>
+        <v>4671.0541869999997</v>
       </c>
       <c r="BY20" s="1">
         <v>1.297515</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1564.890000</v>
+        <v>1564.89</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1022.490000</v>
+        <v>-1022.49</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>4683.456197</v>
+        <v>4683.4561970000004</v>
       </c>
       <c r="CD20" s="1">
-        <v>1.300960</v>
+        <v>1.3009599999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1971.170000</v>
+        <v>1971.17</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1564.430000</v>
+        <v>-1564.43</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>4510.750188</v>
       </c>
       <c r="B21" s="1">
-        <v>1.252986</v>
+        <v>1.2529859999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>902.745000</v>
+        <v>902.745</v>
       </c>
       <c r="D21" s="1">
-        <v>-195.145000</v>
+        <v>-195.14500000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>4521.164679</v>
+        <v>4521.1646790000004</v>
       </c>
       <c r="G21" s="1">
         <v>1.255879</v>
       </c>
       <c r="H21" s="1">
-        <v>919.369000</v>
+        <v>919.36900000000003</v>
       </c>
       <c r="I21" s="1">
-        <v>-165.235000</v>
+        <v>-165.23500000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>4532.049875</v>
+        <v>4532.0498749999997</v>
       </c>
       <c r="L21" s="1">
-        <v>1.258903</v>
+        <v>1.2589030000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>941.158000</v>
+        <v>941.15800000000002</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.129000</v>
+        <v>-118.129</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>4542.626076</v>
+        <v>4542.6260759999996</v>
       </c>
       <c r="Q21" s="1">
         <v>1.261841</v>
       </c>
       <c r="R21" s="1">
-        <v>947.644000</v>
+        <v>947.64400000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.993000</v>
+        <v>-102.99299999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>4552.976583</v>
+        <v>4552.9765829999997</v>
       </c>
       <c r="V21" s="1">
         <v>1.264716</v>
       </c>
       <c r="W21" s="1">
-        <v>953.952000</v>
+        <v>953.952</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.291200</v>
+        <v>-89.291200000000003</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>4563.429305</v>
+        <v>4563.4293049999997</v>
       </c>
       <c r="AA21" s="1">
-        <v>1.267619</v>
+        <v>1.2676190000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>961.048000</v>
+        <v>961.048</v>
       </c>
       <c r="AC21" s="1">
-        <v>-79.907000</v>
+        <v>-79.906999999999996</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>4573.899323</v>
+        <v>4573.8993229999996</v>
       </c>
       <c r="AF21" s="1">
-        <v>1.270528</v>
+        <v>1.2705280000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>966.055000</v>
+        <v>966.05499999999995</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.504700</v>
+        <v>-79.5047</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>4584.061891</v>
+        <v>4584.0618910000003</v>
       </c>
       <c r="AK21" s="1">
-        <v>1.273351</v>
+        <v>1.2733509999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>974.024000</v>
+        <v>974.024</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.196500</v>
+        <v>-87.1965</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>4595.315616</v>
+        <v>4595.3156159999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>1.276477</v>
+        <v>1.2764770000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>983.277000</v>
+        <v>983.27700000000004</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.004000</v>
+        <v>-102.004</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>4606.018785</v>
+        <v>4606.0187850000002</v>
       </c>
       <c r="AU21" s="1">
-        <v>1.279450</v>
+        <v>1.27945</v>
       </c>
       <c r="AV21" s="1">
-        <v>994.690000</v>
+        <v>994.69</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.292000</v>
+        <v>-123.292</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>4616.990468</v>
@@ -5514,300 +5930,300 @@
         <v>1.282497</v>
       </c>
       <c r="BA21" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="BB21" s="1">
-        <v>-141.809000</v>
+        <v>-141.809</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>4627.657254</v>
+        <v>4627.6572539999997</v>
       </c>
       <c r="BE21" s="1">
-        <v>1.285460</v>
+        <v>1.28546</v>
       </c>
       <c r="BF21" s="1">
-        <v>1049.360000</v>
+        <v>1049.3599999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-225.516000</v>
+        <v>-225.51599999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>4638.274614</v>
+        <v>4638.2746139999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>1.288410</v>
+        <v>1.2884100000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1127.980000</v>
+        <v>1127.98</v>
       </c>
       <c r="BL21" s="1">
-        <v>-359.923000</v>
+        <v>-359.923</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>4649.528844</v>
+        <v>4649.5288440000004</v>
       </c>
       <c r="BO21" s="1">
         <v>1.291536</v>
       </c>
       <c r="BP21" s="1">
-        <v>1257.920000</v>
+        <v>1257.92</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-568.078000</v>
+        <v>-568.07799999999997</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>4660.181385</v>
+        <v>4660.1813849999999</v>
       </c>
       <c r="BT21" s="1">
         <v>1.294495</v>
       </c>
       <c r="BU21" s="1">
-        <v>1404.190000</v>
+        <v>1404.19</v>
       </c>
       <c r="BV21" s="1">
-        <v>-790.240000</v>
+        <v>-790.24</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>4671.194058</v>
       </c>
       <c r="BY21" s="1">
-        <v>1.297554</v>
+        <v>1.2975540000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1564.830000</v>
+        <v>1564.83</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1022.430000</v>
+        <v>-1022.43</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>4683.975467</v>
+        <v>4683.9754670000002</v>
       </c>
       <c r="CD21" s="1">
         <v>1.301104</v>
       </c>
       <c r="CE21" s="1">
-        <v>1972.350000</v>
+        <v>1972.35</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1563.490000</v>
+        <v>-1563.49</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>4511.174287</v>
+        <v>4511.1742869999998</v>
       </c>
       <c r="B22" s="1">
         <v>1.253104</v>
       </c>
       <c r="C22" s="1">
-        <v>902.757000</v>
+        <v>902.75699999999995</v>
       </c>
       <c r="D22" s="1">
-        <v>-195.033000</v>
+        <v>-195.03299999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>4521.582304</v>
+        <v>4521.5823039999996</v>
       </c>
       <c r="G22" s="1">
         <v>1.255995</v>
       </c>
       <c r="H22" s="1">
-        <v>919.318000</v>
+        <v>919.31799999999998</v>
       </c>
       <c r="I22" s="1">
-        <v>-165.174000</v>
+        <v>-165.17400000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>4532.334082</v>
+        <v>4532.3340820000003</v>
       </c>
       <c r="L22" s="1">
         <v>1.258982</v>
       </c>
       <c r="M22" s="1">
-        <v>941.270000</v>
+        <v>941.27</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.168000</v>
+        <v>-118.16800000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>4542.904859</v>
+        <v>4542.9048590000002</v>
       </c>
       <c r="Q22" s="1">
-        <v>1.261918</v>
+        <v>1.2619180000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>947.646000</v>
+        <v>947.64599999999996</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.000000</v>
+        <v>-103</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>4553.318359</v>
+        <v>4553.3183589999999</v>
       </c>
       <c r="V22" s="1">
-        <v>1.264811</v>
+        <v>1.2648109999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>954.049000</v>
+        <v>954.04899999999998</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.350100</v>
+        <v>-89.350099999999998</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>4563.780441</v>
+        <v>4563.7804409999999</v>
       </c>
       <c r="AA22" s="1">
         <v>1.267717</v>
       </c>
       <c r="AB22" s="1">
-        <v>961.069000</v>
+        <v>961.06899999999996</v>
       </c>
       <c r="AC22" s="1">
-        <v>-79.983300</v>
+        <v>-79.9833</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>4574.240603</v>
+        <v>4574.2406030000002</v>
       </c>
       <c r="AF22" s="1">
-        <v>1.270622</v>
+        <v>1.2706219999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>966.061000</v>
+        <v>966.06100000000004</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.507400</v>
+        <v>-79.507400000000004</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>4584.756749</v>
+        <v>4584.7567490000001</v>
       </c>
       <c r="AK22" s="1">
         <v>1.273544</v>
       </c>
       <c r="AL22" s="1">
-        <v>974.012000</v>
+        <v>974.01199999999994</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.208100</v>
+        <v>-87.208100000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>4595.703456</v>
+        <v>4595.7034560000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>1.276584</v>
+        <v>1.2765839999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>983.266000</v>
+        <v>983.26599999999996</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.989000</v>
+        <v>-101.989</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>4606.409104</v>
+        <v>4606.4091040000003</v>
       </c>
       <c r="AU22" s="1">
         <v>1.279558</v>
       </c>
       <c r="AV22" s="1">
-        <v>994.688000</v>
+        <v>994.68799999999999</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.291000</v>
+        <v>-123.291</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>4617.350850</v>
+        <v>4617.3508499999998</v>
       </c>
       <c r="AZ22" s="1">
         <v>1.282597</v>
       </c>
       <c r="BA22" s="1">
-        <v>1004.320000</v>
+        <v>1004.32</v>
       </c>
       <c r="BB22" s="1">
-        <v>-141.793000</v>
+        <v>-141.79300000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>4628.320388</v>
+        <v>4628.3203880000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>1.285645</v>
+        <v>1.2856449999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1049.400000</v>
+        <v>1049.4000000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-225.530000</v>
+        <v>-225.53</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>4638.960549</v>
+        <v>4638.9605490000004</v>
       </c>
       <c r="BJ22" s="1">
-        <v>1.288600</v>
+        <v>1.2886</v>
       </c>
       <c r="BK22" s="1">
-        <v>1127.980000</v>
+        <v>1127.98</v>
       </c>
       <c r="BL22" s="1">
-        <v>-359.919000</v>
+        <v>-359.91899999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>4649.638919</v>
@@ -5816,996 +6232,996 @@
         <v>1.291566</v>
       </c>
       <c r="BP22" s="1">
-        <v>1257.900000</v>
+        <v>1257.9000000000001</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-568.076000</v>
+        <v>-568.07600000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>4660.319768</v>
+        <v>4660.3197680000003</v>
       </c>
       <c r="BT22" s="1">
-        <v>1.294533</v>
+        <v>1.2945329999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1404.300000</v>
+        <v>1404.3</v>
       </c>
       <c r="BV22" s="1">
-        <v>-790.300000</v>
+        <v>-790.3</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>4671.617654</v>
+        <v>4671.6176539999997</v>
       </c>
       <c r="BY22" s="1">
-        <v>1.297672</v>
+        <v>1.2976719999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1564.860000</v>
+        <v>1564.86</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1022.490000</v>
+        <v>-1022.49</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>4684.496797</v>
+        <v>4684.4967969999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>1.301249</v>
+        <v>1.3012490000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1971.350000</v>
+        <v>1971.35</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1562.280000</v>
+        <v>-1562.28</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>4511.453502</v>
+        <v>4511.4535020000003</v>
       </c>
       <c r="B23" s="1">
         <v>1.253182</v>
       </c>
       <c r="C23" s="1">
-        <v>902.773000</v>
+        <v>902.77300000000002</v>
       </c>
       <c r="D23" s="1">
-        <v>-195.084000</v>
+        <v>-195.084</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>4521.861056</v>
+        <v>4521.8610559999997</v>
       </c>
       <c r="G23" s="1">
         <v>1.256073</v>
       </c>
       <c r="H23" s="1">
-        <v>919.391000</v>
+        <v>919.39099999999996</v>
       </c>
       <c r="I23" s="1">
-        <v>-165.298000</v>
+        <v>-165.298</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>4532.680298</v>
+        <v>4532.6802980000002</v>
       </c>
       <c r="L23" s="1">
-        <v>1.259078</v>
+        <v>1.2590779999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>941.150000</v>
+        <v>941.15</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.277000</v>
+        <v>-118.277</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>4543.252516</v>
+        <v>4543.2525159999996</v>
       </c>
       <c r="Q23" s="1">
-        <v>1.262015</v>
+        <v>1.2620150000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>947.642000</v>
+        <v>947.64200000000005</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.023000</v>
+        <v>-103.023</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>4553.664038</v>
+        <v>4553.6640379999999</v>
       </c>
       <c r="V23" s="1">
         <v>1.264907</v>
       </c>
       <c r="W23" s="1">
-        <v>953.945000</v>
+        <v>953.94500000000005</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.369900</v>
+        <v>-89.369900000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>4564.476824</v>
+        <v>4564.4768240000003</v>
       </c>
       <c r="AA23" s="1">
-        <v>1.267910</v>
+        <v>1.2679100000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>961.100000</v>
+        <v>961.1</v>
       </c>
       <c r="AC23" s="1">
-        <v>-79.918500</v>
+        <v>-79.918499999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>4574.930539</v>
       </c>
       <c r="AF23" s="1">
-        <v>1.270814</v>
+        <v>1.2708140000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>966.071000</v>
+        <v>966.07100000000003</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.513200</v>
+        <v>-79.513199999999998</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>4585.108908</v>
+        <v>4585.1089080000002</v>
       </c>
       <c r="AK23" s="1">
         <v>1.273641</v>
       </c>
       <c r="AL23" s="1">
-        <v>974.028000</v>
+        <v>974.02800000000002</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.220500</v>
+        <v>-87.220500000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>4596.064045</v>
+        <v>4596.0640450000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>1.276684</v>
+        <v>1.2766839999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>983.264000</v>
+        <v>983.26400000000001</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.011000</v>
+        <v>-102.011</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>4606.772705</v>
+        <v>4606.7727050000003</v>
       </c>
       <c r="AU23" s="1">
-        <v>1.279659</v>
+        <v>1.2796590000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>994.689000</v>
+        <v>994.68899999999996</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.287000</v>
+        <v>-123.28700000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>4618.008545</v>
+        <v>4618.0085449999997</v>
       </c>
       <c r="AZ23" s="1">
-        <v>1.282780</v>
+        <v>1.28278</v>
       </c>
       <c r="BA23" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="BB23" s="1">
-        <v>-141.817000</v>
+        <v>-141.81700000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>4628.758873</v>
+        <v>4628.7588729999998</v>
       </c>
       <c r="BE23" s="1">
         <v>1.285766</v>
       </c>
       <c r="BF23" s="1">
-        <v>1049.370000</v>
+        <v>1049.3699999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-225.530000</v>
+        <v>-225.53</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>4639.399044</v>
+        <v>4639.3990439999998</v>
       </c>
       <c r="BJ23" s="1">
-        <v>1.288722</v>
+        <v>1.2887219999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1127.990000</v>
+        <v>1127.99</v>
       </c>
       <c r="BL23" s="1">
-        <v>-359.941000</v>
+        <v>-359.94099999999997</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>4650.053079</v>
+        <v>4650.0530790000003</v>
       </c>
       <c r="BO23" s="1">
-        <v>1.291681</v>
+        <v>1.2916810000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1257.890000</v>
+        <v>1257.8900000000001</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-568.117000</v>
+        <v>-568.11699999999996</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>4660.730953</v>
+        <v>4660.7309530000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>1.294647</v>
+        <v>1.2946470000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1404.370000</v>
+        <v>1404.37</v>
       </c>
       <c r="BV23" s="1">
-        <v>-790.332000</v>
+        <v>-790.33199999999999</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>4672.042746</v>
+        <v>4672.0427460000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>1.297790</v>
+        <v>1.29779</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1564.870000</v>
+        <v>1564.87</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1022.650000</v>
+        <v>-1022.65</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>4685.012632</v>
+        <v>4685.0126319999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>1.301392</v>
+        <v>1.3013920000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1970.400000</v>
+        <v>1970.4</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1563.510000</v>
+        <v>-1563.51</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>4511.794749</v>
+        <v>4511.7947489999997</v>
       </c>
       <c r="B24" s="1">
-        <v>1.253276</v>
+        <v>1.2532760000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>902.558000</v>
+        <v>902.55799999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-195.169000</v>
+        <v>-195.16900000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>4522.204785</v>
+        <v>4522.2047849999999</v>
       </c>
       <c r="G24" s="1">
         <v>1.256168</v>
       </c>
       <c r="H24" s="1">
-        <v>919.591000</v>
+        <v>919.59100000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-165.373000</v>
+        <v>-165.37299999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>4533.027027</v>
+        <v>4533.0270270000001</v>
       </c>
       <c r="L24" s="1">
         <v>1.259174</v>
       </c>
       <c r="M24" s="1">
-        <v>941.142000</v>
+        <v>941.14200000000005</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.239000</v>
+        <v>-118.239</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>4543.925129</v>
+        <v>4543.9251290000002</v>
       </c>
       <c r="Q24" s="1">
-        <v>1.262201</v>
+        <v>1.2622009999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>947.631000</v>
+        <v>947.63099999999997</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.036000</v>
+        <v>-103.036</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>4554.350502</v>
+        <v>4554.3505020000002</v>
       </c>
       <c r="V24" s="1">
-        <v>1.265097</v>
+        <v>1.2650969999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>954.033000</v>
+        <v>954.03300000000002</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.336300</v>
+        <v>-89.336299999999994</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>4564.824519</v>
+        <v>4564.8245189999998</v>
       </c>
       <c r="AA24" s="1">
-        <v>1.268007</v>
+        <v>1.2680070000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>961.122000</v>
+        <v>961.12199999999996</v>
       </c>
       <c r="AC24" s="1">
-        <v>-79.974700</v>
+        <v>-79.974699999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>4575.272777</v>
+        <v>4575.2727770000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>1.270909</v>
+        <v>1.2709090000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>966.043000</v>
+        <v>966.04300000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.508800</v>
+        <v>-79.508799999999994</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>4585.459084</v>
+        <v>4585.4590840000001</v>
       </c>
       <c r="AK24" s="1">
         <v>1.273739</v>
       </c>
       <c r="AL24" s="1">
-        <v>974.015000</v>
+        <v>974.01499999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.232900</v>
+        <v>-87.232900000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>4596.727197</v>
+        <v>4596.7271970000002</v>
       </c>
       <c r="AP24" s="1">
         <v>1.276869</v>
       </c>
       <c r="AQ24" s="1">
-        <v>983.259000</v>
+        <v>983.25900000000001</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.977000</v>
+        <v>-101.977</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>4607.445744</v>
+        <v>4607.4457439999996</v>
       </c>
       <c r="AU24" s="1">
         <v>1.279846</v>
       </c>
       <c r="AV24" s="1">
-        <v>994.700000</v>
+        <v>994.7</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.320000</v>
+        <v>-123.32</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>4618.459905</v>
+        <v>4618.4599049999997</v>
       </c>
       <c r="AZ24" s="1">
-        <v>1.282906</v>
+        <v>1.2829060000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1004.310000</v>
+        <v>1004.31</v>
       </c>
       <c r="BB24" s="1">
-        <v>-141.823000</v>
+        <v>-141.82300000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>4629.125378</v>
+        <v>4629.1253779999997</v>
       </c>
       <c r="BE24" s="1">
         <v>1.285868</v>
       </c>
       <c r="BF24" s="1">
-        <v>1049.390000</v>
+        <v>1049.3900000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-225.541000</v>
+        <v>-225.541</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>4639.777957</v>
+        <v>4639.7779570000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>1.288827</v>
+        <v>1.2888269999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1128.010000</v>
+        <v>1128.01</v>
       </c>
       <c r="BL24" s="1">
-        <v>-359.939000</v>
+        <v>-359.93900000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>4650.459335</v>
+        <v>4650.4593349999996</v>
       </c>
       <c r="BO24" s="1">
-        <v>1.291794</v>
+        <v>1.2917940000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1257.900000</v>
+        <v>1257.9000000000001</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-568.139000</v>
+        <v>-568.13900000000001</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>4661.159992</v>
+        <v>4661.1599919999999</v>
       </c>
       <c r="BT24" s="1">
         <v>1.294767</v>
       </c>
       <c r="BU24" s="1">
-        <v>1404.410000</v>
+        <v>1404.41</v>
       </c>
       <c r="BV24" s="1">
-        <v>-790.265000</v>
+        <v>-790.26499999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>4672.459882</v>
+        <v>4672.4598820000001</v>
       </c>
       <c r="BY24" s="1">
         <v>1.297906</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1564.940000</v>
+        <v>1564.94</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1022.550000</v>
+        <v>-1022.55</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>4685.531447</v>
+        <v>4685.5314470000003</v>
       </c>
       <c r="CD24" s="1">
-        <v>1.301537</v>
+        <v>1.3015369999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1970.370000</v>
+        <v>1970.37</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1562.490000</v>
+        <v>-1562.49</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>4512.136990</v>
+        <v>4512.13699</v>
       </c>
       <c r="B25" s="1">
         <v>1.253371</v>
       </c>
       <c r="C25" s="1">
-        <v>902.577000</v>
+        <v>902.577</v>
       </c>
       <c r="D25" s="1">
-        <v>-194.977000</v>
+        <v>-194.977</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>4522.550031</v>
+        <v>4522.5500309999998</v>
       </c>
       <c r="G25" s="1">
         <v>1.256264</v>
       </c>
       <c r="H25" s="1">
-        <v>919.424000</v>
+        <v>919.42399999999998</v>
       </c>
       <c r="I25" s="1">
-        <v>-165.137000</v>
+        <v>-165.137</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>4533.720896</v>
+        <v>4533.7208959999998</v>
       </c>
       <c r="L25" s="1">
-        <v>1.259367</v>
+        <v>1.2593669999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>941.140000</v>
+        <v>941.14</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.227000</v>
+        <v>-118.227</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>4544.299570</v>
+        <v>4544.2995700000001</v>
       </c>
       <c r="Q25" s="1">
         <v>1.262305</v>
       </c>
       <c r="R25" s="1">
-        <v>947.622000</v>
+        <v>947.62199999999996</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.011000</v>
+        <v>-103.011</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>4554.691781</v>
+        <v>4554.6917810000004</v>
       </c>
       <c r="V25" s="1">
-        <v>1.265192</v>
+        <v>1.2651920000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>953.987000</v>
+        <v>953.98699999999997</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.332100</v>
+        <v>-89.332099999999997</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>4565.172252</v>
+        <v>4565.1722520000003</v>
       </c>
       <c r="AA25" s="1">
         <v>1.268103</v>
       </c>
       <c r="AB25" s="1">
-        <v>961.012000</v>
+        <v>961.01199999999994</v>
       </c>
       <c r="AC25" s="1">
-        <v>-79.912400</v>
+        <v>-79.912400000000005</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>4575.618458</v>
+        <v>4575.6184579999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>1.271005</v>
+        <v>1.2710049999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>966.070000</v>
+        <v>966.07</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.508200</v>
+        <v>-79.508200000000002</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>4586.123724</v>
       </c>
       <c r="AK25" s="1">
-        <v>1.273923</v>
+        <v>1.2739229999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>974.030000</v>
+        <v>974.03</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.216700</v>
+        <v>-87.216700000000003</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>4597.172109</v>
+        <v>4597.1721090000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>1.276992</v>
+        <v>1.2769919999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>983.242000</v>
+        <v>983.24199999999996</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.000000</v>
+        <v>-102</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>4607.900078</v>
+        <v>4607.9000779999997</v>
       </c>
       <c r="AU25" s="1">
-        <v>1.279972</v>
+        <v>1.2799720000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>994.690000</v>
+        <v>994.69</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.290000</v>
+        <v>-123.29</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>4618.815536</v>
+        <v>4618.8155360000001</v>
       </c>
       <c r="AZ25" s="1">
         <v>1.283004</v>
       </c>
       <c r="BA25" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="BB25" s="1">
-        <v>-141.820000</v>
+        <v>-141.82</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>4629.487955</v>
+        <v>4629.4879549999996</v>
       </c>
       <c r="BE25" s="1">
-        <v>1.285969</v>
+        <v>1.2859689999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1049.400000</v>
+        <v>1049.4000000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-225.524000</v>
+        <v>-225.524</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>4640.153924</v>
+        <v>4640.1539240000002</v>
       </c>
       <c r="BJ25" s="1">
         <v>1.288932</v>
       </c>
       <c r="BK25" s="1">
-        <v>1127.970000</v>
+        <v>1127.97</v>
       </c>
       <c r="BL25" s="1">
-        <v>-359.939000</v>
+        <v>-359.93900000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>4650.887424</v>
+        <v>4650.8874239999996</v>
       </c>
       <c r="BO25" s="1">
-        <v>1.291913</v>
+        <v>1.2919130000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1257.960000</v>
+        <v>1257.96</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-568.093000</v>
+        <v>-568.09299999999996</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>4661.983849</v>
+        <v>4661.9838490000002</v>
       </c>
       <c r="BT25" s="1">
         <v>1.294996</v>
       </c>
       <c r="BU25" s="1">
-        <v>1404.440000</v>
+        <v>1404.44</v>
       </c>
       <c r="BV25" s="1">
-        <v>-790.375000</v>
+        <v>-790.375</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>4672.909720</v>
+        <v>4672.9097199999997</v>
       </c>
       <c r="BY25" s="1">
-        <v>1.298030</v>
+        <v>1.29803</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1564.950000</v>
+        <v>1564.95</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1022.440000</v>
+        <v>-1022.44</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>4686.082999</v>
+        <v>4686.0829990000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>1.301690</v>
+        <v>1.30169</v>
       </c>
       <c r="CE25" s="1">
-        <v>1971.670000</v>
+        <v>1971.67</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1562.210000</v>
+        <v>-1562.21</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>4512.819484</v>
+        <v>4512.8194839999996</v>
       </c>
       <c r="B26" s="1">
-        <v>1.253561</v>
+        <v>1.2535609999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>902.652000</v>
+        <v>902.65200000000004</v>
       </c>
       <c r="D26" s="1">
-        <v>-195.021000</v>
+        <v>-195.02099999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>4523.237982</v>
+        <v>4523.2379819999996</v>
       </c>
       <c r="G26" s="1">
-        <v>1.256455</v>
+        <v>1.2564550000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>919.324000</v>
+        <v>919.32399999999996</v>
       </c>
       <c r="I26" s="1">
-        <v>-165.263000</v>
+        <v>-165.26300000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>4534.068591</v>
+        <v>4534.0685910000002</v>
       </c>
       <c r="L26" s="1">
         <v>1.259463</v>
       </c>
       <c r="M26" s="1">
-        <v>941.158000</v>
+        <v>941.15800000000002</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.303000</v>
+        <v>-118.303</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>4544.648785</v>
+        <v>4544.6487850000003</v>
       </c>
       <c r="Q26" s="1">
         <v>1.262402</v>
       </c>
       <c r="R26" s="1">
-        <v>947.599000</v>
+        <v>947.59900000000005</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.976000</v>
+        <v>-102.976</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>4555.038949</v>
+        <v>4555.0389489999998</v>
       </c>
       <c r="V26" s="1">
-        <v>1.265289</v>
+        <v>1.2652890000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>953.943000</v>
+        <v>953.94299999999998</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.318200</v>
+        <v>-89.318200000000004</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>4565.826966</v>
+        <v>4565.8269659999996</v>
       </c>
       <c r="AA26" s="1">
-        <v>1.268285</v>
+        <v>1.2682850000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>961.145000</v>
+        <v>961.14499999999998</v>
       </c>
       <c r="AC26" s="1">
-        <v>-79.940000</v>
+        <v>-79.94</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>4576.282104</v>
+        <v>4576.2821039999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>1.271189</v>
+        <v>1.2711889999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>966.084000</v>
+        <v>966.08399999999995</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.509300</v>
+        <v>-79.509299999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>4586.501189</v>
+        <v>4586.5011889999996</v>
       </c>
       <c r="AK26" s="1">
-        <v>1.274028</v>
+        <v>1.2740279999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>974.003000</v>
+        <v>974.00300000000004</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.208400</v>
+        <v>-87.208399999999997</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>4597.531212</v>
+        <v>4597.5312119999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>1.277092</v>
+        <v>1.2770919999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>983.280000</v>
+        <v>983.28</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.984000</v>
+        <v>-101.98399999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>4608.257198</v>
+        <v>4608.2571980000002</v>
       </c>
       <c r="AU26" s="1">
         <v>1.280071</v>
       </c>
       <c r="AV26" s="1">
-        <v>994.670000</v>
+        <v>994.67</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.282000</v>
+        <v>-123.282</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>4619.178111</v>
+        <v>4619.1781110000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>1.283105</v>
+        <v>1.2831049999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1004.330000</v>
+        <v>1004.33</v>
       </c>
       <c r="BB26" s="1">
-        <v>-141.821000</v>
+        <v>-141.821</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>4629.911537</v>
@@ -6814,90 +7230,91 @@
         <v>1.286087</v>
       </c>
       <c r="BF26" s="1">
-        <v>1049.390000</v>
+        <v>1049.3900000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-225.517000</v>
+        <v>-225.517</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>4640.565603</v>
       </c>
       <c r="BJ26" s="1">
-        <v>1.289046</v>
+        <v>1.2890459999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1128.000000</v>
+        <v>1128</v>
       </c>
       <c r="BL26" s="1">
-        <v>-359.956000</v>
+        <v>-359.95600000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>4651.281173</v>
+        <v>4651.2811730000003</v>
       </c>
       <c r="BO26" s="1">
-        <v>1.292023</v>
+        <v>1.2920229999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1257.950000</v>
+        <v>1257.95</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-568.108000</v>
+        <v>-568.10799999999995</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>4662.421319</v>
       </c>
       <c r="BT26" s="1">
-        <v>1.295117</v>
+        <v>1.2951170000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1404.530000</v>
+        <v>1404.53</v>
       </c>
       <c r="BV26" s="1">
-        <v>-790.412000</v>
+        <v>-790.41200000000003</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>4673.328840</v>
+        <v>4673.3288400000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>1.298147</v>
+        <v>1.2981469999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1564.860000</v>
+        <v>1564.86</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1022.560000</v>
+        <v>-1022.56</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>4686.618150</v>
+        <v>4686.6181500000002</v>
       </c>
       <c r="CD26" s="1">
-        <v>1.301838</v>
+        <v>1.3018380000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1970.300000</v>
+        <v>1970.3</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1563.100000</v>
+        <v>-1563.1</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>